--- a/CW2/Timing data.xlsx
+++ b/CW2/Timing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4AE01-DDEF-46B9-AD63-CFB4C85EADD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4D39B-9B34-45DC-A959-E8502E191858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8136" yWindow="4212" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Nodes</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>HALO EXCHANGE TIMES</t>
-  </si>
-  <si>
-    <t>MY COLLECTION</t>
-  </si>
-  <si>
-    <t>GATHER</t>
   </si>
 </sst>
 </file>
@@ -112,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,15 +129,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB59" sqref="AB59"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4067,7 +4085,7 @@
         <v>0.99731500000000006</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>2</v>
       </c>
@@ -4144,7 +4162,7 @@
         <v>1.0839468000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>2</v>
       </c>
@@ -4221,7 +4239,7 @@
         <v>1.0558125999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>2</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>0.92737259999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>0.94016459999999991</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
@@ -4452,7 +4470,7 @@
         <v>1.034233</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2</v>
       </c>
@@ -4529,7 +4547,7 @@
         <v>0.9709658000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2</v>
       </c>
@@ -4606,7 +4624,7 @@
         <v>0.96268039999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>2</v>
       </c>
@@ -4683,7 +4701,7 @@
         <v>0.90689540000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>2</v>
       </c>
@@ -4760,7 +4778,7 @@
         <v>0.92726819999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>2</v>
       </c>
@@ -4837,68 +4855,61 @@
         <v>0.9179906000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2">
-        <f>SUM(D61:H61)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>2</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2">
-        <f>SUM(N61:R61)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2">
-        <f>SUM(X61:AB61)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2">
+      <c r="D62" s="4">
+        <v>5.3477999999999998E-2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>6.5750000000000003E-2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>6.9597999999999993E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>6.8640000000000007E-2</v>
+      </c>
+      <c r="H62" s="4">
+        <v>6.7965999999999999E-2</v>
+      </c>
+      <c r="I62" s="4">
         <f t="shared" ref="I62:I88" si="3">SUM(D62:H62)/5</f>
-        <v>0</v>
+        <v>6.5086399999999989E-2</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -4906,14 +4917,24 @@
       <c r="M62">
         <v>2</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="N62" s="2">
+        <v>1.5226139999999999</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1.5239039999999999</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1.509177</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>1.5116369999999999</v>
+      </c>
+      <c r="R62" s="2">
+        <v>1.5164249999999999</v>
+      </c>
       <c r="S62" s="2">
         <f t="shared" ref="S62:S88" si="4">SUM(N62:R62)/5</f>
-        <v>0</v>
+        <v>1.5167514</v>
       </c>
       <c r="V62">
         <v>2</v>
@@ -4921,31 +4942,51 @@
       <c r="W62">
         <v>2</v>
       </c>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
+      <c r="X62" s="2">
+        <v>5.5642690000000004</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>5.548724</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>5.5643799999999999</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>5.5849219999999997</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>5.577388</v>
+      </c>
       <c r="AC62" s="2">
         <f t="shared" ref="AC62:AC88" si="5">SUM(X62:AB62)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+        <v>5.5679365999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="D63" s="2">
+        <v>3.5793999999999999E-2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>4.4531000000000001E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4.3671000000000001E-2</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4.4137000000000003E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4.3517E-2</v>
+      </c>
       <c r="I63" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.233E-2</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -4953,14 +4994,24 @@
       <c r="M63">
         <v>3</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="N63" s="2">
+        <v>1.087742</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1.0867230000000001</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1.0609729999999999</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>1.0758239999999999</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1.067396</v>
+      </c>
       <c r="S63" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.0757315999999999</v>
       </c>
       <c r="V63">
         <v>2</v>
@@ -4968,31 +5019,51 @@
       <c r="W63">
         <v>3</v>
       </c>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
+      <c r="X63" s="2">
+        <v>3.9197150000000001</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>3.910933</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>3.9130319999999998</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>3.9225099999999999</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>3.933551</v>
+      </c>
       <c r="AC63" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+        <v>3.9199482000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="D64" s="2">
+        <v>3.4063999999999997E-2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3.4026000000000001E-2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3.5392E-2</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4.0176000000000003E-2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3.3563999999999997E-2</v>
+      </c>
       <c r="I64" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5444400000000001E-2</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -5000,14 +5071,24 @@
       <c r="M64">
         <v>4</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
+      <c r="N64" s="2">
+        <v>0.81833199999999995</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0.81692799999999999</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.81679800000000002</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.84168299999999996</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.82172299999999998</v>
+      </c>
       <c r="S64" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.82309279999999985</v>
       </c>
       <c r="V64">
         <v>2</v>
@@ -5015,14 +5096,24 @@
       <c r="W64">
         <v>4</v>
       </c>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
+      <c r="X64" s="2">
+        <v>2.9611839999999998</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>2.9800909999999998</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>2.9684590000000002</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>2.986329</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>2.9542639999999998</v>
+      </c>
       <c r="AC64" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.9700654000000002</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.3">
@@ -5032,14 +5123,24 @@
       <c r="C65">
         <v>5</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="D65" s="2">
+        <v>3.2936E-2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3.4778999999999997E-2</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2.9465999999999999E-2</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2.8760999999999998E-2</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.7785000000000001E-2</v>
+      </c>
       <c r="I65" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.0745399999999999E-2</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -5047,14 +5148,24 @@
       <c r="M65">
         <v>5</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="N65" s="2">
+        <v>0.74396399999999996</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.70809</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.68703099999999995</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.69218500000000005</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.69020899999999996</v>
+      </c>
       <c r="S65" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.70429579999999992</v>
       </c>
       <c r="V65">
         <v>2</v>
@@ -5062,14 +5173,24 @@
       <c r="W65">
         <v>5</v>
       </c>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
+      <c r="X65" s="2">
+        <v>2.6001629999999998</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>2.5635859999999999</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>2.651179</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>2.5377100000000001</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>2.577458</v>
+      </c>
       <c r="AC65" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.5860192</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.3">
@@ -5079,14 +5200,24 @@
       <c r="C66">
         <v>6</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="D66" s="2">
+        <v>2.6807999999999998E-2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.3193999999999999E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2.4568E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2.341E-2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2.5115999999999999E-2</v>
+      </c>
       <c r="I66" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4619200000000001E-2</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -5094,14 +5225,24 @@
       <c r="M66">
         <v>6</v>
       </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
+      <c r="N66" s="2">
+        <v>0.63446800000000003</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0.57835899999999996</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.58901300000000001</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0.57697500000000002</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0.58902600000000005</v>
+      </c>
       <c r="S66" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.59356819999999999</v>
       </c>
       <c r="V66">
         <v>2</v>
@@ -5109,14 +5250,24 @@
       <c r="W66">
         <v>6</v>
       </c>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
+      <c r="X66" s="2">
+        <v>2.252316</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>2.2756690000000002</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>2.2581709999999999</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>2.1406109999999998</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>2.103567</v>
+      </c>
       <c r="AC66" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.2060667999999999</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.3">
@@ -5126,14 +5277,24 @@
       <c r="C67">
         <v>7</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="D67" s="2">
+        <v>2.4445000000000001E-2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.0797E-2</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2.1316999999999999E-2</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2.1190000000000001E-2</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2.2074E-2</v>
+      </c>
       <c r="I67" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1964600000000001E-2</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -5141,14 +5302,24 @@
       <c r="M67">
         <v>7</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="N67" s="2">
+        <v>0.56103400000000003</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0.51822199999999996</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.48069600000000001</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0.50452699999999995</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0.495255</v>
+      </c>
       <c r="S67" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.51194679999999992</v>
       </c>
       <c r="V67">
         <v>2</v>
@@ -5156,14 +5327,24 @@
       <c r="W67">
         <v>7</v>
       </c>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
+      <c r="X67" s="2">
+        <v>2.0201039999999999</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>1.9595020000000001</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>1.864582</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>1.8193509999999999</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>1.8677319999999999</v>
+      </c>
       <c r="AC67" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9062542</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.3">
@@ -5173,14 +5354,24 @@
       <c r="C68">
         <v>8</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="D68" s="2">
+        <v>1.9258000000000001E-2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1.8721999999999999E-2</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1.9271E-2</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.9224999999999999E-2</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1.9633000000000001E-2</v>
+      </c>
       <c r="I68" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.9221799999999997E-2</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -5188,14 +5379,24 @@
       <c r="M68">
         <v>8</v>
       </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
+      <c r="N68" s="2">
+        <v>0.521509</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0.45553900000000003</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0.467418</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0.45980199999999999</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0.45567000000000002</v>
+      </c>
       <c r="S68" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.47198760000000001</v>
       </c>
       <c r="V68">
         <v>2</v>
@@ -5203,14 +5404,24 @@
       <c r="W68">
         <v>8</v>
       </c>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
+      <c r="X68" s="2">
+        <v>1.1785737999999999</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>1.754156</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1.741933</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>1.7299059999999999</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>1.7123029999999999</v>
+      </c>
       <c r="AC68" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6233743600000001</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.3">
@@ -5220,14 +5431,24 @@
       <c r="C69">
         <v>9</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="D69" s="2">
+        <v>1.4553E-2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.7308E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1.7125000000000001E-2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1.6538000000000001E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.72E-2</v>
+      </c>
       <c r="I69" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6544799999999998E-2</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -5235,14 +5456,24 @@
       <c r="M69">
         <v>9</v>
       </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
+      <c r="N69" s="2">
+        <v>0.447801</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.444021</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.49975900000000001</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0.41456799999999999</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.41847800000000002</v>
+      </c>
       <c r="S69" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.44492539999999997</v>
       </c>
       <c r="V69">
         <v>2</v>
@@ -5250,14 +5481,24 @@
       <c r="W69">
         <v>9</v>
       </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
+      <c r="X69" s="2">
+        <v>1.8471340000000001</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>1.743236</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>1.743077</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>1.8164940000000001</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>1.7245889999999999</v>
+      </c>
       <c r="AC69" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.7749060000000001</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.3">
@@ -5267,14 +5508,24 @@
       <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="D70" s="2">
+        <v>1.553E-2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1.5283E-2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1.5309E-2</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.5656E-2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1.5458E-2</v>
+      </c>
       <c r="I70" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5447199999999999E-2</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -5282,14 +5533,24 @@
       <c r="M70">
         <v>10</v>
       </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
+      <c r="N70" s="2">
+        <v>0.44578000000000001</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.44473299999999999</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.422012</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0.42180099999999998</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0.419767</v>
+      </c>
       <c r="S70" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.43081859999999994</v>
       </c>
       <c r="V70">
         <v>2</v>
@@ -5297,14 +5558,24 @@
       <c r="W70">
         <v>10</v>
       </c>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
+      <c r="X70" s="2">
+        <v>1.533075</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>1.5857209999999999</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>1.5651710000000001</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>1.5880879999999999</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>1.5568070000000001</v>
+      </c>
       <c r="AC70" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5657724</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.3">
@@ -5314,14 +5585,24 @@
       <c r="C71">
         <v>11</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="D71" s="2">
+        <v>1.5402000000000001E-2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1.7975000000000001E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1.5618999999999999E-2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1.4534999999999999E-2</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1.5157E-2</v>
+      </c>
       <c r="I71" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5737600000000001E-2</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -5329,14 +5610,24 @@
       <c r="M71">
         <v>11</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="N71" s="2">
+        <v>0.50238799999999995</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0.411885</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0.36376199999999997</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0.37761</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.42010700000000001</v>
+      </c>
       <c r="S71" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.41515039999999992</v>
       </c>
       <c r="V71">
         <v>2</v>
@@ -5344,14 +5635,24 @@
       <c r="W71">
         <v>11</v>
       </c>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
+      <c r="X71" s="2">
+        <v>1.621637</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>1.6611469999999999</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1.566773</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>1.5741670000000001</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>1.6431100000000001</v>
+      </c>
       <c r="AC71" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6133668000000001</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.3">
@@ -5361,14 +5662,24 @@
       <c r="C72">
         <v>12</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="D72" s="2">
+        <v>1.3847E-2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.6050999999999999E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1.3756000000000001E-2</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1.3401E-2</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1.4225E-2</v>
+      </c>
       <c r="I72" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4256E-2</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -5376,14 +5687,24 @@
       <c r="M72">
         <v>12</v>
       </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="N72" s="2">
+        <v>0.38370700000000002</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0.37689600000000001</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0.40924899999999997</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0.38746900000000001</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.39365600000000001</v>
+      </c>
       <c r="S72" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.39019540000000003</v>
       </c>
       <c r="V72">
         <v>2</v>
@@ -5391,14 +5712,24 @@
       <c r="W72">
         <v>12</v>
       </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="2"/>
+      <c r="X72" s="2">
+        <v>1.586082</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>1.5463389999999999</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1.4673780000000001</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>1.4742649999999999</v>
+      </c>
+      <c r="AB72" s="2">
+        <v>1.4591810000000001</v>
+      </c>
       <c r="AC72" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5066489999999999</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.3">
@@ -5408,14 +5739,24 @@
       <c r="C73">
         <v>13</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="D73" s="2">
+        <v>1.5834999999999998E-2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1.4146000000000001E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1.3885E-2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.5896E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.6611000000000001E-2</v>
+      </c>
       <c r="I73" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5274599999999999E-2</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -5423,14 +5764,24 @@
       <c r="M73">
         <v>13</v>
       </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="N73" s="2">
+        <v>0.38470199999999999</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0.43920599999999999</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0.388484</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0.39624999999999999</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.40329199999999998</v>
+      </c>
       <c r="S73" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.40238680000000004</v>
       </c>
       <c r="V73">
         <v>2</v>
@@ -5438,14 +5789,24 @@
       <c r="W73">
         <v>13</v>
       </c>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="2"/>
+      <c r="X73" s="2">
+        <v>1.6378299999999999</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>1.4914320000000001</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>1.490156</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>1.499255</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>1.5535209999999999</v>
+      </c>
       <c r="AC73" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5344387999999998</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.3">
@@ -5455,14 +5816,24 @@
       <c r="C74">
         <v>14</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="D74" s="2">
+        <v>1.1349E-2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.3988E-2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1.5450999999999999E-2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1.7342E-2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.2895999999999999E-2</v>
+      </c>
       <c r="I74" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4205200000000001E-2</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -5470,14 +5841,24 @@
       <c r="M74">
         <v>14</v>
       </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="N74" s="2">
+        <v>0.37605899999999998</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0.36268499999999998</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0.38359500000000002</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0.38581799999999999</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0.37282599999999999</v>
+      </c>
       <c r="S74" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37619659999999999</v>
       </c>
       <c r="V74">
         <v>2</v>
@@ -5485,14 +5866,24 @@
       <c r="W74">
         <v>14</v>
       </c>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
+      <c r="X74" s="2">
+        <v>1.307898</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>1.3561160000000001</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1.374217</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>1.376827</v>
+      </c>
+      <c r="AB74" s="2">
+        <v>1.332994</v>
+      </c>
       <c r="AC74" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3496104</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.3">
@@ -5502,14 +5893,24 @@
       <c r="C75">
         <v>15</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="D75" s="2">
+        <v>1.2505E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1.2746E-2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1.2683E-2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1.2505E-2</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.1694E-2</v>
+      </c>
       <c r="I75" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2426600000000001E-2</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -5517,14 +5918,24 @@
       <c r="M75">
         <v>15</v>
       </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="N75" s="2">
+        <v>0.380776</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0.373861</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0.36985400000000002</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0.40421200000000002</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.439994</v>
+      </c>
       <c r="S75" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.39373939999999996</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -5532,14 +5943,24 @@
       <c r="W75">
         <v>15</v>
       </c>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
+      <c r="X75" s="2">
+        <v>1.3786799999999999</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>1.3364670000000001</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>1.494918</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>1.205268</v>
+      </c>
+      <c r="AB75" s="2">
+        <v>1.4560709999999999</v>
+      </c>
       <c r="AC75" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3742808</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.3">
@@ -5549,14 +5970,24 @@
       <c r="C76">
         <v>16</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="D76" s="2">
+        <v>1.1142000000000001E-2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1.9702999999999998E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1.8904000000000001E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1.9222E-2</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1.3589E-2</v>
+      </c>
       <c r="I76" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6512000000000002E-2</v>
       </c>
       <c r="L76">
         <v>2</v>
@@ -5564,14 +5995,24 @@
       <c r="M76">
         <v>16</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
+      <c r="N76" s="2">
+        <v>0.36465599999999998</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0.37379400000000002</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0.38920100000000002</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0.38920100000000002</v>
+      </c>
+      <c r="R76" s="2">
+        <v>0.35669299999999998</v>
+      </c>
       <c r="S76" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37470900000000001</v>
       </c>
       <c r="V76">
         <v>2</v>
@@ -5579,14 +6020,24 @@
       <c r="W76">
         <v>16</v>
       </c>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
+      <c r="X76" s="2">
+        <v>1.396315</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>1.3482890000000001</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1.4659819999999999</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>1.353129</v>
+      </c>
+      <c r="AB76" s="2">
+        <v>1.3651519999999999</v>
+      </c>
       <c r="AC76" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3857733999999999</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.3">
@@ -5596,14 +6047,24 @@
       <c r="C77">
         <v>17</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="D77" s="2">
+        <v>1.6133999999999999E-2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.0999E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.4187E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1.1519E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1.1873999999999999E-2</v>
+      </c>
       <c r="I77" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2942599999999999E-2</v>
       </c>
       <c r="L77">
         <v>2</v>
@@ -5611,14 +6072,24 @@
       <c r="M77">
         <v>17</v>
       </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="N77" s="2">
+        <v>0.37063800000000002</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0.40095900000000001</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0.36643900000000001</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0.37865300000000002</v>
+      </c>
+      <c r="R77" s="2">
+        <v>0.40529700000000002</v>
+      </c>
       <c r="S77" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.38439719999999999</v>
       </c>
       <c r="V77">
         <v>2</v>
@@ -5626,14 +6097,24 @@
       <c r="W77">
         <v>17</v>
       </c>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
+      <c r="X77" s="2">
+        <v>1.4141550000000001</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>1.395869</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>1.3218190000000001</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>1.3435319999999999</v>
+      </c>
+      <c r="AB77" s="2">
+        <v>1.4101410000000001</v>
+      </c>
       <c r="AC77" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3771032000000001</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.3">
@@ -5643,14 +6124,24 @@
       <c r="C78">
         <v>18</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="D78" s="2">
+        <v>1.1306E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1.5256E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1.3504E-2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.5442000000000001E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.1785E-2</v>
+      </c>
       <c r="I78" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3458600000000001E-2</v>
       </c>
       <c r="L78">
         <v>2</v>
@@ -5658,14 +6149,24 @@
       <c r="M78">
         <v>18</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="N78" s="2">
+        <v>0.40226800000000001</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0.36927599999999999</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0.36725200000000002</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0.39311000000000001</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0.35796499999999998</v>
+      </c>
       <c r="S78" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37797420000000004</v>
       </c>
       <c r="V78">
         <v>2</v>
@@ -5673,14 +6174,24 @@
       <c r="W78">
         <v>18</v>
       </c>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
+      <c r="X78" s="2">
+        <v>1.3189679999999999</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>1.33195</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>1.316252</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>1.303801</v>
+      </c>
+      <c r="AB78" s="2">
+        <v>1.315642</v>
+      </c>
       <c r="AC78" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3173226</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.3">
@@ -5690,14 +6201,24 @@
       <c r="C79">
         <v>19</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="D79" s="2">
+        <v>1.2213E-2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1.2888999999999999E-2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1.3531E-2</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1.3509E-2</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1.2224E-2</v>
+      </c>
       <c r="I79" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2873200000000001E-2</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -5705,14 +6226,24 @@
       <c r="M79">
         <v>19</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="N79" s="2">
+        <v>0.36171700000000001</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0.34013900000000002</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0.36475800000000003</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0.342777</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0.40980699999999998</v>
+      </c>
       <c r="S79" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36383959999999999</v>
       </c>
       <c r="V79">
         <v>2</v>
@@ -5720,14 +6251,24 @@
       <c r="W79">
         <v>19</v>
       </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="2"/>
+      <c r="X79" s="2">
+        <v>1.318209</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>1.392212</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>1.380768</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>1.3285439999999999</v>
+      </c>
+      <c r="AB79" s="2">
+        <v>1.357148</v>
+      </c>
       <c r="AC79" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3553761999999998</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.3">
@@ -5737,14 +6278,24 @@
       <c r="C80">
         <v>20</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="D80" s="2">
+        <v>1.1867000000000001E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1.3358999999999999E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1.2318000000000001E-2</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1.6083E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1.5663E-2</v>
+      </c>
       <c r="I80" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3858000000000001E-2</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -5752,14 +6303,24 @@
       <c r="M80">
         <v>20</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="N80" s="2">
+        <v>0.35929899999999998</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0.36904500000000001</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0.37665399999999999</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0.34895900000000002</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0.39127000000000001</v>
+      </c>
       <c r="S80" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36904539999999997</v>
       </c>
       <c r="V80">
         <v>2</v>
@@ -5767,14 +6328,24 @@
       <c r="W80">
         <v>20</v>
       </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
+      <c r="X80" s="2">
+        <v>1.313704</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>1.345208</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>1.312738</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>1.2999350000000001</v>
+      </c>
+      <c r="AB80" s="2">
+        <v>1.369691</v>
+      </c>
       <c r="AC80" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3282551999999999</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.3">
@@ -5784,14 +6355,24 @@
       <c r="C81">
         <v>21</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="D81" s="2">
+        <v>1.426E-2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1.1143999999999999E-2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1.2015E-2</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1.3558000000000001E-2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1.2479000000000001E-2</v>
+      </c>
       <c r="I81" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.26912E-2</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -5799,14 +6380,24 @@
       <c r="M81">
         <v>21</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+      <c r="N81" s="2">
+        <v>0.379519</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0.35995899999999997</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0.38656099999999999</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0.341831</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0.35741499999999998</v>
+      </c>
       <c r="S81" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36505700000000002</v>
       </c>
       <c r="V81">
         <v>2</v>
@@ -5814,14 +6405,24 @@
       <c r="W81">
         <v>21</v>
       </c>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
+      <c r="X81" s="2">
+        <v>1.3422320000000001</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>1.359872</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>1.3054680000000001</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>1.36225</v>
+      </c>
+      <c r="AB81" s="2">
+        <v>1.352617</v>
+      </c>
       <c r="AC81" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3444878000000002</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.3">
@@ -5831,14 +6432,24 @@
       <c r="C82">
         <v>22</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="D82" s="2">
+        <v>1.3302E-2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1.3213000000000001E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1.4429000000000001E-2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1.4090999999999999E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.4589E-2</v>
+      </c>
       <c r="I82" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3924800000000001E-2</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -5846,14 +6457,24 @@
       <c r="M82">
         <v>22</v>
       </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+      <c r="N82" s="2">
+        <v>0.33744200000000002</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0.37677300000000002</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0.403526</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0.40105200000000002</v>
+      </c>
       <c r="S82" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37123859999999997</v>
       </c>
       <c r="V82">
         <v>2</v>
@@ -5861,14 +6482,24 @@
       <c r="W82">
         <v>22</v>
       </c>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
+      <c r="X82" s="2">
+        <v>1.338506</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>1.3305640000000001</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>1.406731</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>1.2957099999999999</v>
+      </c>
+      <c r="AB82" s="2">
+        <v>1.325936</v>
+      </c>
       <c r="AC82" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3394894000000002</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.3">
@@ -5878,14 +6509,24 @@
       <c r="C83">
         <v>23</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="D83" s="2">
+        <v>1.2857E-2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1.1816E-2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1.3428000000000001E-2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1.4785E-2</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1.3558000000000001E-2</v>
+      </c>
       <c r="I83" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.32888E-2</v>
       </c>
       <c r="L83">
         <v>2</v>
@@ -5893,14 +6534,24 @@
       <c r="M83">
         <v>23</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="N83" s="2">
+        <v>0.35561199999999998</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0.37191600000000002</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0.42741299999999999</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0.33076299999999997</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0.40432800000000002</v>
+      </c>
       <c r="S83" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37800639999999996</v>
       </c>
       <c r="V83">
         <v>2</v>
@@ -5908,14 +6559,24 @@
       <c r="W83">
         <v>23</v>
       </c>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
+      <c r="X83" s="2">
+        <v>1.3430979999999999</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>1.294611</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>1.339701</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>1.354306</v>
+      </c>
+      <c r="AB83" s="2">
+        <v>1.2068380000000001</v>
+      </c>
       <c r="AC83" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3077108000000002</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.3">
@@ -5925,14 +6586,24 @@
       <c r="C84">
         <v>24</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="D84" s="2">
+        <v>1.0173E-2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1.1975E-2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1.2319999999999999E-2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1.6022999999999999E-2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1.2074E-2</v>
+      </c>
       <c r="I84" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2513E-2</v>
       </c>
       <c r="L84">
         <v>2</v>
@@ -5940,14 +6611,24 @@
       <c r="M84">
         <v>24</v>
       </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+      <c r="N84" s="2">
+        <v>0.39828400000000003</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0.345304</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0.352275</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0.40593699999999999</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0.38475100000000001</v>
+      </c>
       <c r="S84" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37731020000000004</v>
       </c>
       <c r="V84">
         <v>2</v>
@@ -5955,14 +6636,24 @@
       <c r="W84">
         <v>24</v>
       </c>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
+      <c r="X84" s="2">
+        <v>1.3185199999999999</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>1.2192449999999999</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>1.4205700000000001</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>1.3403670000000001</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>1.3030839999999999</v>
+      </c>
       <c r="AC84" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3203572000000001</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.3">
@@ -5972,14 +6663,24 @@
       <c r="C85">
         <v>25</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="D85" s="2">
+        <v>1.1075E-2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1.2174000000000001E-2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1.4227E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1.5789000000000001E-2</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1.1235E-2</v>
+      </c>
       <c r="I85" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2899999999999998E-2</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -5987,14 +6688,24 @@
       <c r="M85">
         <v>25</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
+      <c r="N85" s="2">
+        <v>0.36657899999999999</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0.35683700000000002</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0.35466900000000001</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0.36172700000000002</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0.35889399999999999</v>
+      </c>
       <c r="S85" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.35974120000000009</v>
       </c>
       <c r="V85">
         <v>2</v>
@@ -6002,14 +6713,24 @@
       <c r="W85">
         <v>25</v>
       </c>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="2"/>
+      <c r="X85" s="2">
+        <v>1.340781</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>1.290386</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>1.228745</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>1.3410569999999999</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>1.335607</v>
+      </c>
       <c r="AC85" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3073152000000001</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.3">
@@ -6019,14 +6740,24 @@
       <c r="C86">
         <v>26</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="D86" s="2">
+        <v>1.1016E-2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.3036000000000001E-2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1.3733E-2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1.4172000000000001E-2</v>
+      </c>
+      <c r="H86" s="2">
+        <v>1.528E-2</v>
+      </c>
       <c r="I86" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3447400000000002E-2</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -6034,14 +6765,24 @@
       <c r="M86">
         <v>26</v>
       </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
+      <c r="N86" s="2">
+        <v>0.480605</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0.376857</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0.42315000000000003</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0.41250900000000001</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0.39889599999999997</v>
+      </c>
       <c r="S86" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.41840340000000004</v>
       </c>
       <c r="V86">
         <v>2</v>
@@ -6049,14 +6790,24 @@
       <c r="W86">
         <v>26</v>
       </c>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="2"/>
+      <c r="X86" s="2">
+        <v>1.3009820000000001</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>1.2233069999999999</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>1.4799949999999999</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>1.4900739999999999</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>1.2387319999999999</v>
+      </c>
       <c r="AC86" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.3466179999999999</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.3">
@@ -6066,14 +6817,24 @@
       <c r="C87">
         <v>27</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="D87" s="2">
+        <v>1.057E-2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.5589E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1.1173000000000001E-2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1.3357000000000001E-2</v>
+      </c>
+      <c r="H87" s="2">
+        <v>1.4012E-2</v>
+      </c>
       <c r="I87" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2940200000000002E-2</v>
       </c>
       <c r="L87">
         <v>2</v>
@@ -6081,14 +6842,24 @@
       <c r="M87">
         <v>27</v>
       </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
+      <c r="N87" s="2">
+        <v>0.34308300000000003</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0.35864200000000002</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0.346636</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0.41786200000000001</v>
+      </c>
+      <c r="R87" s="2">
+        <v>0.36634299999999997</v>
+      </c>
       <c r="S87" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.36651319999999998</v>
       </c>
       <c r="V87">
         <v>2</v>
@@ -6096,14 +6867,24 @@
       <c r="W87">
         <v>27</v>
       </c>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="2"/>
+      <c r="X87" s="2">
+        <v>1.308745</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>1.3566670000000001</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>1.394798</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>1.277245</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>1.296195</v>
+      </c>
       <c r="AC87" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.32673</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.3">
@@ -6113,14 +6894,24 @@
       <c r="C88">
         <v>28</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="D88" s="2">
+        <v>1.4892000000000001E-2</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.2496E-2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1.4279999999999999E-2</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1.2602E-2</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1.5873999999999999E-2</v>
+      </c>
       <c r="I88" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4028800000000003E-2</v>
       </c>
       <c r="L88">
         <v>2</v>
@@ -6128,14 +6919,24 @@
       <c r="M88">
         <v>28</v>
       </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="N88" s="2">
+        <v>0.32791900000000002</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0.47456199999999998</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0.37449700000000002</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0.28459000000000001</v>
+      </c>
+      <c r="R88" s="2">
+        <v>0.24892600000000001</v>
+      </c>
       <c r="S88" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.34209880000000004</v>
       </c>
       <c r="V88">
         <v>2</v>
@@ -6143,14 +6944,24 @@
       <c r="W88">
         <v>28</v>
       </c>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
+      <c r="X88" s="2">
+        <v>1.3367260000000001</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>1.30949</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>1.3836729999999999</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>1.1913830000000001</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>1.334738</v>
+      </c>
       <c r="AC88" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.311202</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.3">
@@ -6171,11 +6982,21 @@
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
       <c r="I92" s="2">
         <f>SUM(D92:H92)/5</f>
         <v>0</v>
@@ -6186,11 +7007,21 @@
       <c r="M92">
         <v>1</v>
       </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0</v>
+      </c>
       <c r="S92" s="2">
         <f>SUM(N92:R92)/5</f>
         <v>0</v>
@@ -6218,14 +7049,24 @@
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="D93" s="2">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="E93" s="2">
+        <v>9.5200000000000005E-4</v>
+      </c>
+      <c r="F93" s="2">
+        <v>8.1899999999999996E-4</v>
+      </c>
+      <c r="G93" s="2">
+        <v>8.1400000000000005E-4</v>
+      </c>
+      <c r="H93" s="2">
+        <v>9.4600000000000001E-4</v>
+      </c>
       <c r="I93" s="2">
         <f t="shared" ref="I93:I111" si="6">SUM(D93:H93)/5</f>
-        <v>0</v>
+        <v>8.6720000000000005E-4</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -6265,14 +7106,24 @@
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="D94" s="2">
+        <v>7.0500000000000001E-4</v>
+      </c>
+      <c r="E94" s="2">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="F94" s="2">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="G94" s="2">
+        <v>8.7200000000000005E-4</v>
+      </c>
+      <c r="H94" s="2">
+        <v>8.61E-4</v>
+      </c>
       <c r="I94" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.9120000000000004E-4</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -7820,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>2</v>
       </c>
@@ -7867,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>2</v>
       </c>
@@ -7914,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>2</v>
       </c>
@@ -7961,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>2</v>
       </c>
@@ -8008,1739 +8859,1413 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="P134" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2">
-        <f>SUM(D135:H135)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135">
-        <v>1</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2">
-        <f>SUM(N135:R135)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V135">
-        <v>1</v>
-      </c>
-      <c r="W135">
-        <v>1</v>
-      </c>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-      <c r="Z135" s="2"/>
-      <c r="AA135" s="2"/>
-      <c r="AB135" s="2"/>
-      <c r="AC135" s="2">
-        <f>SUM(X135:AB135)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2">
-        <f t="shared" ref="I136:I154" si="12">SUM(D136:H136)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-      <c r="M136">
-        <v>2</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2">
-        <f t="shared" ref="S136:S152" si="13">SUM(N136:R136)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V136">
-        <v>1</v>
-      </c>
-      <c r="W136">
-        <v>2</v>
-      </c>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
-      <c r="AA136" s="2"/>
-      <c r="AB136" s="2"/>
-      <c r="AC136" s="2">
-        <f t="shared" ref="AC136:AC152" si="14">SUM(X136:AB136)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-      <c r="M137">
-        <v>3</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-      <c r="S137" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V137">
-        <v>1</v>
-      </c>
-      <c r="W137">
-        <v>3</v>
-      </c>
-      <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
-      <c r="AA137" s="2"/>
-      <c r="AB137" s="2"/>
-      <c r="AC137" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>4</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
-      <c r="R138" s="2"/>
-      <c r="S138" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>4</v>
-      </c>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-      <c r="AB138" s="2"/>
-      <c r="AC138" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>5</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>5</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V139">
-        <v>1</v>
-      </c>
-      <c r="W139">
-        <v>5</v>
-      </c>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
-      <c r="AB139" s="2"/>
-      <c r="AC139" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>6</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <v>6</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V140">
-        <v>1</v>
-      </c>
-      <c r="W140">
-        <v>6</v>
-      </c>
-      <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
-      <c r="AB140" s="2"/>
-      <c r="AC140" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>7</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141">
-        <v>7</v>
-      </c>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V141">
-        <v>1</v>
-      </c>
-      <c r="W141">
-        <v>7</v>
-      </c>
-      <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
-      <c r="AA141" s="2"/>
-      <c r="AB141" s="2"/>
-      <c r="AC141" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>8</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142">
-        <v>8</v>
-      </c>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V142">
-        <v>1</v>
-      </c>
-      <c r="W142">
-        <v>8</v>
-      </c>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
-      <c r="AA142" s="2"/>
-      <c r="AB142" s="2"/>
-      <c r="AC142" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>10</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143">
-        <v>10</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V143">
-        <v>1</v>
-      </c>
-      <c r="W143">
-        <v>10</v>
-      </c>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
-      <c r="AB143" s="2"/>
-      <c r="AC143" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144">
-        <v>12</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V144">
-        <v>1</v>
-      </c>
-      <c r="W144">
-        <v>12</v>
-      </c>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
-      <c r="AA144" s="2"/>
-      <c r="AB144" s="2"/>
-      <c r="AC144" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>15</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145">
-        <v>15</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V145">
-        <v>1</v>
-      </c>
-      <c r="W145">
-        <v>15</v>
-      </c>
-      <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
-      <c r="AA145" s="2"/>
-      <c r="AB145" s="2"/>
-      <c r="AC145" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>20</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-      <c r="M146">
-        <v>20</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>20</v>
-      </c>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
-      <c r="AB146" s="2"/>
-      <c r="AC146" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>24</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147">
-        <v>24</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V147">
-        <v>1</v>
-      </c>
-      <c r="W147">
-        <v>24</v>
-      </c>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
-      <c r="AB147" s="2"/>
-      <c r="AC147" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>28</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>28</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V148">
-        <v>1</v>
-      </c>
-      <c r="W148">
-        <v>28</v>
-      </c>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
-      <c r="AB148" s="2"/>
-      <c r="AC148" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B149">
-        <v>2</v>
-      </c>
-      <c r="C149">
-        <v>30</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>2</v>
-      </c>
-      <c r="M149">
-        <v>30</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V149">
-        <v>2</v>
-      </c>
-      <c r="W149">
-        <v>30</v>
-      </c>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
-      <c r="AB149" s="2"/>
-      <c r="AC149" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B150">
-        <v>2</v>
-      </c>
-      <c r="C150">
-        <v>36</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>2</v>
-      </c>
-      <c r="M150">
-        <v>36</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>2</v>
-      </c>
-      <c r="W150">
-        <v>36</v>
-      </c>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
-      <c r="AA150" s="2"/>
-      <c r="AB150" s="2"/>
-      <c r="AC150" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B151">
-        <v>2</v>
-      </c>
-      <c r="C151">
-        <v>48</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>2</v>
-      </c>
-      <c r="M151">
-        <v>48</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V151">
-        <v>2</v>
-      </c>
-      <c r="W151">
-        <v>48</v>
-      </c>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
-      <c r="AA151" s="2"/>
-      <c r="AB151" s="2"/>
-      <c r="AC151" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="C152">
-        <v>56</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>2</v>
-      </c>
-      <c r="M152">
-        <v>56</v>
-      </c>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V152">
-        <v>2</v>
-      </c>
-      <c r="W152">
-        <v>56</v>
-      </c>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
-      <c r="AA152" s="2"/>
-      <c r="AB152" s="2"/>
-      <c r="AC152" s="2">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
+      <c r="AD134" s="3"/>
+      <c r="AE134" s="3"/>
+    </row>
+    <row r="135" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+      <c r="AC135" s="3"/>
+      <c r="AD135" s="3"/>
+      <c r="AE135" s="3"/>
+    </row>
+    <row r="136" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
+      <c r="AB136" s="3"/>
+      <c r="AC136" s="3"/>
+      <c r="AD136" s="3"/>
+      <c r="AE136" s="3"/>
+    </row>
+    <row r="137" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+      <c r="AC137" s="3"/>
+      <c r="AD137" s="3"/>
+      <c r="AE137" s="3"/>
+    </row>
+    <row r="138" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
+      <c r="AD138" s="3"/>
+      <c r="AE138" s="3"/>
+    </row>
+    <row r="139" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
+    </row>
+    <row r="140" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+      <c r="AC140" s="3"/>
+      <c r="AD140" s="3"/>
+      <c r="AE140" s="3"/>
+    </row>
+    <row r="141" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+      <c r="AC141" s="3"/>
+      <c r="AD141" s="3"/>
+      <c r="AE141" s="3"/>
+    </row>
+    <row r="142" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="3"/>
+      <c r="AB142" s="3"/>
+      <c r="AC142" s="3"/>
+      <c r="AD142" s="3"/>
+      <c r="AE142" s="3"/>
+    </row>
+    <row r="143" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+      <c r="AA143" s="3"/>
+      <c r="AB143" s="3"/>
+      <c r="AC143" s="3"/>
+      <c r="AD143" s="3"/>
+      <c r="AE143" s="3"/>
+    </row>
+    <row r="144" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+      <c r="AA144" s="3"/>
+      <c r="AB144" s="3"/>
+      <c r="AC144" s="3"/>
+      <c r="AD144" s="3"/>
+      <c r="AE144" s="3"/>
+    </row>
+    <row r="145" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
+      <c r="AD145" s="3"/>
+      <c r="AE145" s="3"/>
+    </row>
+    <row r="146" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+      <c r="AC146" s="3"/>
+      <c r="AD146" s="3"/>
+      <c r="AE146" s="3"/>
+    </row>
+    <row r="147" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+      <c r="AC147" s="3"/>
+      <c r="AD147" s="3"/>
+      <c r="AE147" s="3"/>
+    </row>
+    <row r="148" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
+      <c r="AD148" s="3"/>
+      <c r="AE148" s="3"/>
+    </row>
+    <row r="149" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+      <c r="AA149" s="3"/>
+      <c r="AB149" s="3"/>
+      <c r="AC149" s="3"/>
+      <c r="AD149" s="3"/>
+      <c r="AE149" s="3"/>
+    </row>
+    <row r="150" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+      <c r="AC150" s="3"/>
+      <c r="AD150" s="3"/>
+      <c r="AE150" s="3"/>
+    </row>
+    <row r="151" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="3"/>
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+      <c r="AC151" s="3"/>
+      <c r="AD151" s="3"/>
+      <c r="AE151" s="3"/>
+    </row>
+    <row r="152" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+      <c r="AC152" s="3"/>
+      <c r="AD152" s="3"/>
+      <c r="AE152" s="3"/>
+    </row>
+    <row r="153" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
-    </row>
-    <row r="154" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="P154" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2">
-        <f>SUM(D155:H155)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>1</v>
-      </c>
-      <c r="M155">
-        <v>1</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2">
-        <f>SUM(N155:R155)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V155">
-        <v>1</v>
-      </c>
-      <c r="W155">
-        <v>1</v>
-      </c>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
-      <c r="AB155" s="2"/>
-      <c r="AC155" s="2">
-        <f>SUM(X155:AB155)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2">
-        <f t="shared" ref="I156:I172" si="15">SUM(D156:H156)/5</f>
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>1</v>
-      </c>
-      <c r="M156">
-        <v>2</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2">
-        <f t="shared" ref="S156:S172" si="16">SUM(N156:R156)/5</f>
-        <v>0</v>
-      </c>
-      <c r="V156">
-        <v>1</v>
-      </c>
-      <c r="W156">
-        <v>2</v>
-      </c>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
-      <c r="AB156" s="2"/>
-      <c r="AC156" s="2">
-        <f t="shared" ref="AC156:AC172" si="17">SUM(X156:AB156)/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157">
-        <v>3</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V157">
-        <v>1</v>
-      </c>
-      <c r="W157">
-        <v>3</v>
-      </c>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
-      <c r="AA157" s="2"/>
-      <c r="AB157" s="2"/>
-      <c r="AC157" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>4</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>1</v>
-      </c>
-      <c r="M158">
-        <v>4</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V158">
-        <v>1</v>
-      </c>
-      <c r="W158">
-        <v>4</v>
-      </c>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-      <c r="AB158" s="2"/>
-      <c r="AC158" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>5</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>1</v>
-      </c>
-      <c r="M159">
-        <v>5</v>
-      </c>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V159">
-        <v>1</v>
-      </c>
-      <c r="W159">
-        <v>5</v>
-      </c>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-      <c r="AB159" s="2"/>
-      <c r="AC159" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>6</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>1</v>
-      </c>
-      <c r="M160">
-        <v>6</v>
-      </c>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V160">
-        <v>1</v>
-      </c>
-      <c r="W160">
-        <v>6</v>
-      </c>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
-      <c r="AA160" s="2"/>
-      <c r="AB160" s="2"/>
-      <c r="AC160" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>7</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-      <c r="M161">
-        <v>7</v>
-      </c>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V161">
-        <v>1</v>
-      </c>
-      <c r="W161">
-        <v>7</v>
-      </c>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
-      <c r="AB161" s="2"/>
-      <c r="AC161" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>8</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>1</v>
-      </c>
-      <c r="M162">
-        <v>8</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V162">
-        <v>1</v>
-      </c>
-      <c r="W162">
-        <v>8</v>
-      </c>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-      <c r="AB162" s="2"/>
-      <c r="AC162" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>10</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-      <c r="M163">
-        <v>10</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V163">
-        <v>1</v>
-      </c>
-      <c r="W163">
-        <v>10</v>
-      </c>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
-      <c r="AA163" s="2"/>
-      <c r="AB163" s="2"/>
-      <c r="AC163" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164">
-        <v>12</v>
-      </c>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V164">
-        <v>1</v>
-      </c>
-      <c r="W164">
-        <v>12</v>
-      </c>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
-      <c r="AB164" s="2"/>
-      <c r="AC164" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>15</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165">
-        <v>15</v>
-      </c>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>1</v>
-      </c>
-      <c r="W165">
-        <v>15</v>
-      </c>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
-      <c r="AA165" s="2"/>
-      <c r="AB165" s="2"/>
-      <c r="AC165" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>20</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
-        <v>20</v>
-      </c>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V166">
-        <v>1</v>
-      </c>
-      <c r="W166">
-        <v>20</v>
-      </c>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
-      <c r="AA166" s="2"/>
-      <c r="AB166" s="2"/>
-      <c r="AC166" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>24</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167">
-        <v>24</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V167">
-        <v>1</v>
-      </c>
-      <c r="W167">
-        <v>24</v>
-      </c>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-      <c r="AB167" s="2"/>
-      <c r="AC167" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>28</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168">
-        <v>28</v>
-      </c>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V168">
-        <v>1</v>
-      </c>
-      <c r="W168">
-        <v>28</v>
-      </c>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
-      <c r="AC168" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B169">
-        <v>2</v>
-      </c>
-      <c r="C169">
-        <v>30</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>2</v>
-      </c>
-      <c r="M169">
-        <v>30</v>
-      </c>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>30</v>
-      </c>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-      <c r="AB169" s="2"/>
-      <c r="AC169" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B170">
-        <v>2</v>
-      </c>
-      <c r="C170">
-        <v>36</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>2</v>
-      </c>
-      <c r="M170">
-        <v>36</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V170">
-        <v>2</v>
-      </c>
-      <c r="W170">
-        <v>36</v>
-      </c>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
-      <c r="AB170" s="2"/>
-      <c r="AC170" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B171">
-        <v>2</v>
-      </c>
-      <c r="C171">
-        <v>48</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>2</v>
-      </c>
-      <c r="M171">
-        <v>48</v>
-      </c>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V171">
-        <v>2</v>
-      </c>
-      <c r="W171">
-        <v>48</v>
-      </c>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B172">
-        <v>2</v>
-      </c>
-      <c r="C172">
-        <v>56</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>2</v>
-      </c>
-      <c r="M172">
-        <v>56</v>
-      </c>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V172">
-        <v>2</v>
-      </c>
-      <c r="W172">
-        <v>56</v>
-      </c>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
+      <c r="AD153" s="3"/>
+      <c r="AE153" s="3"/>
+    </row>
+    <row r="154" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+      <c r="AC154" s="3"/>
+      <c r="AD154" s="3"/>
+      <c r="AE154" s="3"/>
+    </row>
+    <row r="155" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+      <c r="AC155" s="3"/>
+      <c r="AD155" s="3"/>
+      <c r="AE155" s="3"/>
+    </row>
+    <row r="156" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+      <c r="AA156" s="3"/>
+      <c r="AB156" s="3"/>
+      <c r="AC156" s="3"/>
+      <c r="AD156" s="3"/>
+      <c r="AE156" s="3"/>
+    </row>
+    <row r="157" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3"/>
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3"/>
+      <c r="AC157" s="3"/>
+      <c r="AD157" s="3"/>
+      <c r="AE157" s="3"/>
+    </row>
+    <row r="158" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+      <c r="AA158" s="3"/>
+      <c r="AB158" s="3"/>
+      <c r="AC158" s="3"/>
+      <c r="AD158" s="3"/>
+      <c r="AE158" s="3"/>
+    </row>
+    <row r="159" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+      <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+      <c r="AC159" s="3"/>
+      <c r="AD159" s="3"/>
+      <c r="AE159" s="3"/>
+    </row>
+    <row r="160" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+    </row>
+    <row r="161" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+      <c r="AD161" s="3"/>
+      <c r="AE161" s="3"/>
+    </row>
+    <row r="162" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
+      <c r="AD162" s="3"/>
+      <c r="AE162" s="3"/>
+    </row>
+    <row r="163" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
+      <c r="AA163" s="3"/>
+      <c r="AB163" s="3"/>
+      <c r="AC163" s="3"/>
+      <c r="AD163" s="3"/>
+      <c r="AE163" s="3"/>
+    </row>
+    <row r="164" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
+      <c r="AD164" s="3"/>
+      <c r="AE164" s="3"/>
+    </row>
+    <row r="165" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="3"/>
+      <c r="AB165" s="3"/>
+      <c r="AC165" s="3"/>
+      <c r="AD165" s="3"/>
+      <c r="AE165" s="3"/>
+    </row>
+    <row r="166" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+      <c r="AD166" s="3"/>
+      <c r="AE166" s="3"/>
+    </row>
+    <row r="167" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="3"/>
+      <c r="U167" s="3"/>
+      <c r="V167" s="3"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+      <c r="Y167" s="3"/>
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
+      <c r="AD167" s="3"/>
+      <c r="AE167" s="3"/>
+    </row>
+    <row r="168" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+      <c r="AD168" s="3"/>
+      <c r="AE168" s="3"/>
+    </row>
+    <row r="169" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
+      <c r="U169" s="3"/>
+      <c r="V169" s="3"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+      <c r="Y169" s="3"/>
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+      <c r="AD169" s="3"/>
+      <c r="AE169" s="3"/>
+    </row>
+    <row r="170" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="3"/>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
+      <c r="AD170" s="3"/>
+      <c r="AE170" s="3"/>
+    </row>
+    <row r="171" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="3"/>
+      <c r="T171" s="3"/>
+      <c r="U171" s="3"/>
+      <c r="V171" s="3"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+      <c r="Y171" s="3"/>
+      <c r="Z171" s="3"/>
+      <c r="AA171" s="3"/>
+      <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
+      <c r="AD171" s="3"/>
+      <c r="AE171" s="3"/>
+    </row>
+    <row r="172" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="3"/>
+      <c r="T172" s="3"/>
+      <c r="U172" s="3"/>
+      <c r="V172" s="3"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+      <c r="Y172" s="3"/>
+      <c r="Z172" s="3"/>
+      <c r="AA172" s="3"/>
+      <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
+      <c r="AD172" s="3"/>
+      <c r="AE172" s="3"/>
+    </row>
+    <row r="173" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="3"/>
+      <c r="T173" s="3"/>
+      <c r="U173" s="3"/>
+      <c r="V173" s="3"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+      <c r="Y173" s="3"/>
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+      <c r="AD173" s="3"/>
+      <c r="AE173" s="3"/>
+    </row>
+    <row r="174" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+      <c r="AD174" s="3"/>
+      <c r="AE174" s="3"/>
+    </row>
+    <row r="175" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="3"/>
+      <c r="T175" s="3"/>
+      <c r="U175" s="3"/>
+      <c r="V175" s="3"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+      <c r="Y175" s="3"/>
+      <c r="Z175" s="3"/>
+      <c r="AA175" s="3"/>
+      <c r="AB175" s="3"/>
+      <c r="AC175" s="3"/>
+      <c r="AD175" s="3"/>
+      <c r="AE175" s="3"/>
+    </row>
+    <row r="176" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="3"/>
+      <c r="T176" s="3"/>
+      <c r="U176" s="3"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+      <c r="Y176" s="3"/>
+      <c r="Z176" s="3"/>
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+      <c r="AD176" s="3"/>
+      <c r="AE176" s="3"/>
+    </row>
+    <row r="177" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="3"/>
+      <c r="T177" s="3"/>
+      <c r="U177" s="3"/>
+      <c r="V177" s="3"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+      <c r="Y177" s="3"/>
+      <c r="Z177" s="3"/>
+      <c r="AA177" s="3"/>
+      <c r="AB177" s="3"/>
+      <c r="AC177" s="3"/>
+      <c r="AD177" s="3"/>
+      <c r="AE177" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/CW2/Timing data.xlsx
+++ b/CW2/Timing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D4D39B-9B34-45DC-A959-E8502E191858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D67C42-4102-4965-BF94-A44BA3E91C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8136" yWindow="4212" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="L117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P139" sqref="P139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7032,11 +7032,21 @@
       <c r="W92">
         <v>1</v>
       </c>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>0</v>
+      </c>
       <c r="AC92" s="2">
         <f>SUM(X92:AB92)/5</f>
         <v>0</v>
@@ -7074,14 +7084,24 @@
       <c r="M93">
         <v>2</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
+      <c r="N93" s="2">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="O93" s="2">
+        <v>2.415E-3</v>
+      </c>
+      <c r="P93" s="2">
+        <v>5.692E-3</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>3.156E-3</v>
+      </c>
+      <c r="R93" s="2">
+        <v>5.5659999999999998E-3</v>
+      </c>
       <c r="S93" s="2">
         <f t="shared" ref="S93:S111" si="7">SUM(N93:R93)/5</f>
-        <v>0</v>
+        <v>3.7377999999999995E-3</v>
       </c>
       <c r="V93">
         <v>1</v>
@@ -7131,14 +7151,24 @@
       <c r="M94">
         <v>3</v>
       </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
+      <c r="N94" s="2">
+        <v>3.2460000000000002E-3</v>
+      </c>
+      <c r="O94" s="2">
+        <v>5.3290000000000004E-3</v>
+      </c>
+      <c r="P94" s="2">
+        <v>5.0010000000000002E-3</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>2.4139999999999999E-3</v>
+      </c>
+      <c r="R94" s="2">
+        <v>2.5019999999999999E-3</v>
+      </c>
       <c r="S94" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6984000000000001E-3</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -7163,14 +7193,24 @@
       <c r="C95">
         <v>4</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="D95" s="2">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1.024E-3</v>
+      </c>
+      <c r="G95" s="2">
+        <v>7.3200000000000001E-4</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1.534E-3</v>
+      </c>
       <c r="I95" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.0767999999999999E-3</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -7178,14 +7218,24 @@
       <c r="M95">
         <v>4</v>
       </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
+      <c r="N95" s="2">
+        <v>2.4459999999999998E-3</v>
+      </c>
+      <c r="O95" s="2">
+        <v>2.4369999999999999E-3</v>
+      </c>
+      <c r="P95" s="2">
+        <v>5.94E-3</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>2.6350000000000002E-3</v>
+      </c>
+      <c r="R95" s="2">
+        <v>5.1139999999999996E-3</v>
+      </c>
       <c r="S95" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.7143999999999996E-3</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -7210,14 +7260,24 @@
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="D96" s="2">
+        <v>1.0059999999999999E-3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1.1249999999999999E-3</v>
+      </c>
+      <c r="G96" s="2">
+        <v>9.0399999999999996E-4</v>
+      </c>
+      <c r="H96" s="2">
+        <v>8.4099999999999995E-4</v>
+      </c>
       <c r="I96" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.2180000000000007E-4</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -7225,14 +7285,24 @@
       <c r="M96">
         <v>5</v>
       </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
+      <c r="N96" s="2">
+        <v>6.4479999999999997E-3</v>
+      </c>
+      <c r="O96" s="2">
+        <v>5.659E-3</v>
+      </c>
+      <c r="P96" s="2">
+        <v>2.4550000000000002E-3</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>3.0279999999999999E-3</v>
+      </c>
+      <c r="R96" s="2">
+        <v>5.803E-3</v>
+      </c>
       <c r="S96" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.6785999999999998E-3</v>
       </c>
       <c r="V96">
         <v>1</v>
@@ -7257,14 +7327,24 @@
       <c r="C97">
         <v>6</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="D97" s="2">
+        <v>1.2160000000000001E-3</v>
+      </c>
+      <c r="E97" s="2">
+        <v>9.8299999999999993E-4</v>
+      </c>
+      <c r="F97" s="2">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="G97" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1.2600000000000001E-3</v>
+      </c>
       <c r="I97" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1927999999999999E-3</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -7272,14 +7352,24 @@
       <c r="M97">
         <v>6</v>
       </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
+      <c r="N97" s="2">
+        <v>6.9129999999999999E-3</v>
+      </c>
+      <c r="O97" s="2">
+        <v>2.4949999999999998E-3</v>
+      </c>
+      <c r="P97" s="2">
+        <v>5.3299999999999997E-3</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>4.2394000000000001E-2</v>
+      </c>
+      <c r="R97" s="2">
+        <v>2.0393000000000001E-2</v>
+      </c>
       <c r="S97" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5505000000000001E-2</v>
       </c>
       <c r="V97">
         <v>1</v>
@@ -7304,14 +7394,24 @@
       <c r="C98">
         <v>7</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="D98" s="2">
+        <v>1.289E-3</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1.1349999999999999E-3</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1.3979999999999999E-3</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2.0040000000000001E-3</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1.4530000000000001E-3</v>
+      </c>
       <c r="I98" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4557999999999999E-3</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -7319,14 +7419,24 @@
       <c r="M98">
         <v>7</v>
       </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
+      <c r="N98" s="2">
+        <v>3.7492999999999999E-2</v>
+      </c>
+      <c r="O98" s="2">
+        <v>2.1916999999999999E-2</v>
+      </c>
+      <c r="P98" s="2">
+        <v>1.7947999999999999E-2</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>2.0098999999999999E-2</v>
+      </c>
+      <c r="R98" s="2">
+        <v>2.7189000000000001E-2</v>
+      </c>
       <c r="S98" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4929199999999999E-2</v>
       </c>
       <c r="V98">
         <v>1</v>
@@ -7351,14 +7461,24 @@
       <c r="C99">
         <v>8</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="D99" s="2">
+        <v>1.539E-3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.2229999999999999E-3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>7.7099999999999998E-4</v>
+      </c>
+      <c r="G99" s="2">
+        <v>7.9199999999999995E-4</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1.3179999999999999E-3</v>
+      </c>
       <c r="I99" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -7366,14 +7486,24 @@
       <c r="M99">
         <v>8</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
+      <c r="N99" s="2">
+        <v>5.6437000000000001E-2</v>
+      </c>
+      <c r="O99" s="2">
+        <v>2.6904999999999998E-2</v>
+      </c>
+      <c r="P99" s="2">
+        <v>2.5308000000000001E-2</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>4.1529000000000003E-2</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1.7607999999999999E-2</v>
+      </c>
       <c r="S99" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.3557400000000001E-2</v>
       </c>
       <c r="V99">
         <v>1</v>
@@ -7398,14 +7528,24 @@
       <c r="C100">
         <v>9</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="D100" s="2">
+        <v>1.302E-3</v>
+      </c>
+      <c r="E100" s="2">
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1.1559999999999999E-3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1.511E-3</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1.1670000000000001E-3</v>
+      </c>
       <c r="I100" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2213999999999999E-3</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -7413,14 +7553,24 @@
       <c r="M100">
         <v>9</v>
       </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
+      <c r="N100" s="2">
+        <v>1.3396999999999999E-2</v>
+      </c>
+      <c r="O100" s="2">
+        <v>6.8274000000000001E-2</v>
+      </c>
+      <c r="P100" s="2">
+        <v>2.5992999999999999E-2</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>2.5510999999999999E-2</v>
+      </c>
+      <c r="R100" s="2">
+        <v>3.0648999999999999E-2</v>
+      </c>
       <c r="S100" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.2764799999999997E-2</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -7445,14 +7595,24 @@
       <c r="C101">
         <v>10</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="D101" s="2">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1.181E-3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1.3159999999999999E-3</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1.2570000000000001E-3</v>
+      </c>
+      <c r="H101" s="2">
+        <v>9.7499999999999996E-4</v>
+      </c>
       <c r="I101" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.1090000000000002E-3</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -7460,14 +7620,24 @@
       <c r="M101">
         <v>10</v>
       </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
+      <c r="N101" s="2">
+        <v>1.26E-2</v>
+      </c>
+      <c r="O101" s="2">
+        <v>6.3492000000000007E-2</v>
+      </c>
+      <c r="P101" s="2">
+        <v>3.058E-3</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>6.2469999999999999E-3</v>
+      </c>
+      <c r="R101" s="2">
+        <v>3.7529999999999998E-3</v>
+      </c>
       <c r="S101" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.7830000000000006E-2</v>
       </c>
       <c r="V101">
         <v>1</v>
@@ -7492,14 +7662,24 @@
       <c r="C102">
         <v>12</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="D102" s="2">
+        <v>1.286E-3</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.9710000000000001E-3</v>
+      </c>
+      <c r="F102" s="2">
+        <v>4.3990000000000001E-3</v>
+      </c>
+      <c r="G102" s="2">
+        <v>4.2789999999999998E-3</v>
+      </c>
+      <c r="H102" s="2">
+        <v>4.2249999999999996E-3</v>
+      </c>
       <c r="I102" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2320000000000001E-3</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -7507,14 +7687,24 @@
       <c r="M102">
         <v>12</v>
       </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
+      <c r="N102" s="2">
+        <v>3.4039999999999999E-3</v>
+      </c>
+      <c r="O102" s="2">
+        <v>2.99E-3</v>
+      </c>
+      <c r="P102" s="2">
+        <v>2.843E-3</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>2.264E-3</v>
+      </c>
+      <c r="R102" s="2">
+        <v>3.9880000000000002E-3</v>
+      </c>
       <c r="S102" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0978000000000004E-3</v>
       </c>
       <c r="V102">
         <v>1</v>
@@ -7539,14 +7729,24 @@
       <c r="C103">
         <v>14</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="D103" s="2">
+        <v>5.3169999999999997E-3</v>
+      </c>
+      <c r="E103" s="2">
+        <v>8.26E-3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1.243E-3</v>
+      </c>
+      <c r="G103" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1.8680000000000001E-3</v>
+      </c>
       <c r="I103" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.7575999999999998E-3</v>
       </c>
       <c r="L103">
         <v>1</v>
@@ -7554,14 +7754,24 @@
       <c r="M103">
         <v>14</v>
       </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
+      <c r="N103" s="2">
+        <v>3.1280000000000001E-3</v>
+      </c>
+      <c r="O103" s="2">
+        <v>3.6909999999999998E-3</v>
+      </c>
+      <c r="P103" s="2">
+        <v>5.6764000000000002E-2</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0.117409</v>
+      </c>
+      <c r="R103" s="2">
+        <v>3.7929999999999999E-3</v>
+      </c>
       <c r="S103" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.6956999999999997E-2</v>
       </c>
       <c r="V103">
         <v>1</v>
@@ -7586,14 +7796,24 @@
       <c r="C104">
         <v>16</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="D104" s="2">
+        <v>1.0246E-2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1.1057000000000001E-2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>9.5890000000000003E-3</v>
+      </c>
+      <c r="G104" s="2">
+        <v>5.692E-3</v>
+      </c>
+      <c r="H104" s="2">
+        <v>7.4229999999999999E-3</v>
+      </c>
       <c r="I104" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.8014000000000009E-3</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -7601,14 +7821,24 @@
       <c r="M104">
         <v>16</v>
       </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="N104" s="2">
+        <v>8.4512000000000004E-2</v>
+      </c>
+      <c r="O104" s="2">
+        <v>6.8848999999999994E-2</v>
+      </c>
+      <c r="P104" s="2">
+        <v>2.0357E-2</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>8.9820999999999998E-2</v>
+      </c>
+      <c r="R104" s="2">
+        <v>7.2661000000000003E-2</v>
+      </c>
       <c r="S104" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.7239999999999994E-2</v>
       </c>
       <c r="V104">
         <v>1</v>
@@ -7633,14 +7863,24 @@
       <c r="C105">
         <v>18</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="D105" s="2">
+        <v>5.0619999999999997E-3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>6.0889999999999998E-3</v>
+      </c>
+      <c r="F105" s="2">
+        <v>6.391E-3</v>
+      </c>
+      <c r="G105" s="2">
+        <v>7.7479999999999997E-3</v>
+      </c>
+      <c r="H105" s="2">
+        <v>9.6340000000000002E-3</v>
+      </c>
       <c r="I105" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.9847999999999993E-3</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -7648,14 +7888,24 @@
       <c r="M105">
         <v>18</v>
       </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
+      <c r="N105" s="2">
+        <v>0.101719</v>
+      </c>
+      <c r="O105" s="2">
+        <v>6.5962000000000007E-2</v>
+      </c>
+      <c r="P105" s="2">
+        <v>5.8521999999999998E-2</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>5.7171E-2</v>
+      </c>
+      <c r="R105" s="2">
+        <v>4.0181000000000001E-2</v>
+      </c>
       <c r="S105" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.4711000000000005E-2</v>
       </c>
       <c r="V105">
         <v>1</v>
@@ -7680,14 +7930,24 @@
       <c r="C106">
         <v>20</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="D106" s="2">
+        <v>7.3299999999999997E-3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4.7530000000000003E-3</v>
+      </c>
+      <c r="F106" s="2">
+        <v>4.463E-3</v>
+      </c>
+      <c r="G106" s="2">
+        <v>6.705E-3</v>
+      </c>
+      <c r="H106" s="2">
+        <v>6.0600000000000003E-3</v>
+      </c>
       <c r="I106" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.8621999999999997E-3</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -7695,14 +7955,24 @@
       <c r="M106">
         <v>20</v>
       </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
+      <c r="N106" s="2">
+        <v>4.7389000000000001E-2</v>
+      </c>
+      <c r="O106" s="2">
+        <v>2.8046999999999999E-2</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0.10027999999999999</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>0.100947</v>
+      </c>
+      <c r="R106" s="2">
+        <v>8.6251999999999995E-2</v>
+      </c>
       <c r="S106" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.2582999999999995E-2</v>
       </c>
       <c r="V106">
         <v>1</v>
@@ -7727,14 +7997,24 @@
       <c r="C107">
         <v>22</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="D107" s="2">
+        <v>6.5909999999999996E-3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5.94E-3</v>
+      </c>
+      <c r="F107" s="2">
+        <v>3.6619999999999999E-3</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1.7110000000000001E-3</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3.7759999999999998E-3</v>
+      </c>
       <c r="I107" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.3359999999999996E-3</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -7742,14 +8022,24 @@
       <c r="M107">
         <v>22</v>
       </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
+      <c r="N107" s="2">
+        <v>9.5704999999999998E-2</v>
+      </c>
+      <c r="O107" s="2">
+        <v>3.1566999999999998E-2</v>
+      </c>
+      <c r="P107" s="2">
+        <v>4.3379000000000001E-2</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>7.3078000000000004E-2</v>
+      </c>
+      <c r="R107" s="2">
+        <v>6.1832999999999999E-2</v>
+      </c>
       <c r="S107" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.1112399999999997E-2</v>
       </c>
       <c r="V107">
         <v>1</v>
@@ -7774,14 +8064,24 @@
       <c r="C108">
         <v>24</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="D108" s="2">
+        <v>3.104E-3</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2.7680000000000001E-3</v>
+      </c>
+      <c r="F108" s="2">
+        <v>5.777E-3</v>
+      </c>
+      <c r="G108" s="2">
+        <v>5.6509999999999998E-3</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1.6929E-2</v>
+      </c>
       <c r="I108" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.8457999999999991E-3</v>
       </c>
       <c r="L108">
         <v>1</v>
@@ -7789,14 +8089,24 @@
       <c r="M108">
         <v>24</v>
       </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
+      <c r="N108" s="2">
+        <v>4.3678000000000002E-2</v>
+      </c>
+      <c r="O108" s="2">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="P108" s="2">
+        <v>4.0549000000000002E-2</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>5.0076000000000002E-2</v>
+      </c>
+      <c r="R108" s="2">
+        <v>5.5733999999999999E-2</v>
+      </c>
       <c r="S108" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.6967400000000001E-2</v>
       </c>
       <c r="V108">
         <v>1</v>
@@ -7821,14 +8131,24 @@
       <c r="C109">
         <v>26</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="D109" s="2">
+        <v>1.3169E-2</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2.2759999999999998E-3</v>
+      </c>
+      <c r="F109" s="2">
+        <v>5.8659999999999997E-3</v>
+      </c>
+      <c r="G109" s="2">
+        <v>5.3020000000000003E-3</v>
+      </c>
+      <c r="H109" s="2">
+        <v>5.2700000000000004E-3</v>
+      </c>
       <c r="I109" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.3766000000000005E-3</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -7836,14 +8156,24 @@
       <c r="M109">
         <v>26</v>
       </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
+      <c r="N109" s="2">
+        <v>9.5225000000000004E-2</v>
+      </c>
+      <c r="O109" s="2">
+        <v>7.3276999999999995E-2</v>
+      </c>
+      <c r="P109" s="2">
+        <v>2.3911000000000002E-2</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>2.0056999999999998E-2</v>
+      </c>
+      <c r="R109" s="2">
+        <v>1.8519000000000001E-2</v>
+      </c>
       <c r="S109" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.6197799999999997E-2</v>
       </c>
       <c r="V109">
         <v>1</v>
@@ -7868,14 +8198,24 @@
       <c r="C110">
         <v>28</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="D110" s="2">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5.2110000000000004E-3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4.8430000000000001E-3</v>
+      </c>
+      <c r="G110" s="2">
+        <v>3.9389999999999998E-3</v>
+      </c>
+      <c r="H110" s="2">
+        <v>2.49E-3</v>
+      </c>
       <c r="I110" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.0945999999999995E-3</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -7883,14 +8223,24 @@
       <c r="M110">
         <v>28</v>
       </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
+      <c r="N110" s="2">
+        <v>1.2128E-2</v>
+      </c>
+      <c r="O110" s="2">
+        <v>6.2870000000000001E-3</v>
+      </c>
+      <c r="P110" s="2">
+        <v>7.4440000000000001E-3</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>2.2695E-2</v>
+      </c>
+      <c r="R110" s="2">
+        <v>6.6969999999999998E-3</v>
+      </c>
       <c r="S110" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.10502E-2</v>
       </c>
       <c r="V110">
         <v>1</v>
@@ -7915,14 +8265,24 @@
       <c r="C111">
         <v>56</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="D111" s="2">
+        <v>1.0218E-2</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4.6620000000000003E-3</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1.0423999999999999E-2</v>
+      </c>
+      <c r="G111" s="2">
+        <v>6.581E-3</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1.4963000000000001E-2</v>
+      </c>
       <c r="I111" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.3696000000000005E-3</v>
       </c>
       <c r="L111">
         <v>2</v>
@@ -7930,14 +8290,24 @@
       <c r="M111">
         <v>56</v>
       </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
+      <c r="N111" s="2">
+        <v>9.1594999999999996E-2</v>
+      </c>
+      <c r="O111" s="2">
+        <v>1.7468000000000001E-2</v>
+      </c>
+      <c r="P111" s="2">
+        <v>2.3543999999999999E-2</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>2.9189E-2</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0.13206200000000001</v>
+      </c>
       <c r="S111" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.87716E-2</v>
       </c>
       <c r="V111">
         <v>2</v>
@@ -7973,11 +8343,21 @@
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
       <c r="I114" s="2">
         <f>SUM(D114:H114)/5</f>
         <v>0</v>
@@ -7988,11 +8368,21 @@
       <c r="M114">
         <v>1</v>
       </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>0</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
       <c r="S114" s="2">
         <f>SUM(N114:R114)/5</f>
         <v>0</v>
@@ -8003,11 +8393,21 @@
       <c r="W114">
         <v>1</v>
       </c>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
+      <c r="X114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="2">
+        <v>0</v>
+      </c>
       <c r="AC114" s="2">
         <f>SUM(X114:AB114)/5</f>
         <v>0</v>
@@ -8020,14 +8420,24 @@
       <c r="C115">
         <v>2</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="D115" s="2">
+        <v>4.019E-3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3.068E-3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3.418E-3</v>
+      </c>
+      <c r="G115" s="2">
+        <v>2.8289999999999999E-3</v>
+      </c>
+      <c r="H115" s="2">
+        <v>3.7420000000000001E-3</v>
+      </c>
       <c r="I115" s="2">
         <f t="shared" ref="I115:I132" si="9">SUM(D115:H115)/5</f>
-        <v>0</v>
+        <v>3.4152000000000002E-3</v>
       </c>
       <c r="L115">
         <v>2</v>
@@ -8035,14 +8445,24 @@
       <c r="M115">
         <v>2</v>
       </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
+      <c r="N115" s="2">
+        <v>6.5240000000000003E-3</v>
+      </c>
+      <c r="O115" s="2">
+        <v>1.8884000000000001E-2</v>
+      </c>
+      <c r="P115" s="2">
+        <v>8.4840000000000002E-3</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>1.0029E-2</v>
+      </c>
+      <c r="R115" s="2">
+        <v>9.4649999999999995E-3</v>
+      </c>
       <c r="S115" s="2">
         <f t="shared" ref="S115:S132" si="10">SUM(N115:R115)/5</f>
-        <v>0</v>
+        <v>1.0677200000000001E-2</v>
       </c>
       <c r="V115">
         <v>2</v>
@@ -8067,14 +8487,24 @@
       <c r="C116">
         <v>3</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="D116" s="2">
+        <v>3.372E-3</v>
+      </c>
+      <c r="E116" s="2">
+        <v>4.0860000000000002E-3</v>
+      </c>
+      <c r="F116" s="2">
+        <v>2.9369999999999999E-3</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3.3040000000000001E-3</v>
+      </c>
+      <c r="H116" s="2">
+        <v>3.3170000000000001E-3</v>
+      </c>
       <c r="I116" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.4031999999999999E-3</v>
       </c>
       <c r="L116">
         <v>2</v>
@@ -8082,14 +8512,24 @@
       <c r="M116">
         <v>3</v>
       </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
+      <c r="N116" s="2">
+        <v>1.4626E-2</v>
+      </c>
+      <c r="O116" s="2">
+        <v>9.3159999999999996E-3</v>
+      </c>
+      <c r="P116" s="2">
+        <v>1.0378E-2</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>8.5929999999999999E-3</v>
+      </c>
+      <c r="R116" s="2">
+        <v>1.5723000000000001E-2</v>
+      </c>
       <c r="S116" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.1727199999999998E-2</v>
       </c>
       <c r="V116">
         <v>2</v>
@@ -8114,14 +8554,24 @@
       <c r="C117">
         <v>4</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="D117" s="2">
+        <v>3.5929999999999998E-3</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3.1960000000000001E-3</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2.8739999999999998E-3</v>
+      </c>
+      <c r="G117" s="2">
+        <v>4.0940000000000004E-3</v>
+      </c>
+      <c r="H117" s="2">
+        <v>3.8370000000000001E-3</v>
+      </c>
       <c r="I117" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5187999999999999E-3</v>
       </c>
       <c r="L117">
         <v>2</v>
@@ -8129,14 +8579,24 @@
       <c r="M117">
         <v>4</v>
       </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
+      <c r="N117" s="2">
+        <v>9.4850000000000004E-3</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1.0796E-2</v>
+      </c>
+      <c r="P117" s="2">
+        <v>1.4383E-2</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>9.3270000000000002E-3</v>
+      </c>
+      <c r="R117" s="2">
+        <v>1.1172E-2</v>
+      </c>
       <c r="S117" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.10326E-2</v>
       </c>
       <c r="V117">
         <v>2</v>
@@ -8161,14 +8621,24 @@
       <c r="C118">
         <v>5</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="D118" s="2">
+        <v>3.5530000000000002E-3</v>
+      </c>
+      <c r="E118" s="2">
+        <v>3.8899999999999998E-3</v>
+      </c>
+      <c r="F118" s="2">
+        <v>3.3730000000000001E-3</v>
+      </c>
+      <c r="G118" s="2">
+        <v>3.7889999999999998E-3</v>
+      </c>
+      <c r="H118" s="2">
+        <v>3.4880000000000002E-3</v>
+      </c>
       <c r="I118" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.6186000000000005E-3</v>
       </c>
       <c r="L118">
         <v>2</v>
@@ -8176,14 +8646,24 @@
       <c r="M118">
         <v>5</v>
       </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
+      <c r="N118" s="2">
+        <v>1.3388000000000001E-2</v>
+      </c>
+      <c r="O118" s="2">
+        <v>9.5080000000000008E-3</v>
+      </c>
+      <c r="P118" s="2">
+        <v>9.5879999999999993E-3</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>9.9830000000000006E-3</v>
+      </c>
+      <c r="R118" s="2">
+        <v>8.5019999999999991E-3</v>
+      </c>
       <c r="S118" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.0193799999999999E-2</v>
       </c>
       <c r="V118">
         <v>2</v>
@@ -8208,14 +8688,24 @@
       <c r="C119">
         <v>6</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="D119" s="2">
+        <v>4.2189999999999997E-3</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3.261E-3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4.0559999999999997E-3</v>
+      </c>
+      <c r="G119" s="2">
+        <v>3.6419999999999998E-3</v>
+      </c>
+      <c r="H119" s="2">
+        <v>3.9129999999999998E-3</v>
+      </c>
       <c r="I119" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.8181999999999995E-3</v>
       </c>
       <c r="L119">
         <v>2</v>
@@ -8223,14 +8713,24 @@
       <c r="M119">
         <v>6</v>
       </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
+      <c r="N119" s="2">
+        <v>9.1789999999999997E-3</v>
+      </c>
+      <c r="O119" s="2">
+        <v>8.7019999999999997E-3</v>
+      </c>
+      <c r="P119" s="2">
+        <v>1.7767999999999999E-2</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>1.3705999999999999E-2</v>
+      </c>
+      <c r="R119" s="2">
+        <v>9.129E-3</v>
+      </c>
       <c r="S119" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.1696799999999999E-2</v>
       </c>
       <c r="V119">
         <v>2</v>
@@ -8255,14 +8755,24 @@
       <c r="C120">
         <v>7</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="D120" s="2">
+        <v>2.9090000000000001E-3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>4.2519999999999997E-3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2.862E-3</v>
+      </c>
+      <c r="G120" s="2">
+        <v>4.1869999999999997E-3</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2.9129999999999998E-3</v>
+      </c>
       <c r="I120" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.4245999999999999E-3</v>
       </c>
       <c r="L120">
         <v>2</v>
@@ -8270,14 +8780,24 @@
       <c r="M120">
         <v>7</v>
       </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
+      <c r="N120" s="2">
+        <v>1.4305E-2</v>
+      </c>
+      <c r="O120" s="2">
+        <v>9.1990000000000006E-3</v>
+      </c>
+      <c r="P120" s="2">
+        <v>1.0663000000000001E-2</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>8.9680000000000003E-3</v>
+      </c>
+      <c r="R120" s="2">
+        <v>2.0802000000000001E-2</v>
+      </c>
       <c r="S120" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.2787400000000001E-2</v>
       </c>
       <c r="V120">
         <v>2</v>
@@ -8302,14 +8822,24 @@
       <c r="C121">
         <v>8</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="D121" s="2">
+        <v>4.0359999999999997E-3</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3.7780000000000001E-3</v>
+      </c>
+      <c r="F121" s="2">
+        <v>3.3549999999999999E-3</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3.2820000000000002E-3</v>
+      </c>
+      <c r="H121" s="2">
+        <v>3.3019999999999998E-3</v>
+      </c>
       <c r="I121" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.5506000000000001E-3</v>
       </c>
       <c r="L121">
         <v>2</v>
@@ -8317,14 +8847,24 @@
       <c r="M121">
         <v>8</v>
       </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
+      <c r="N121" s="2">
+        <v>1.3952000000000001E-2</v>
+      </c>
+      <c r="O121" s="2">
+        <v>1.9563000000000001E-2</v>
+      </c>
+      <c r="P121" s="2">
+        <v>9.3790000000000002E-3</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>1.2565E-2</v>
+      </c>
+      <c r="R121" s="2">
+        <v>1.7073000000000001E-2</v>
+      </c>
       <c r="S121" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.4506399999999999E-2</v>
       </c>
       <c r="V121">
         <v>2</v>
@@ -8349,14 +8889,24 @@
       <c r="C122">
         <v>9</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="D122" s="2">
+        <v>3.6670000000000001E-3</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3.7950000000000002E-3</v>
+      </c>
+      <c r="F122" s="2">
+        <v>3.5890000000000002E-3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>3.408E-3</v>
+      </c>
+      <c r="H122" s="2">
+        <v>4.9560000000000003E-3</v>
+      </c>
       <c r="I122" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.8830000000000002E-3</v>
       </c>
       <c r="L122">
         <v>2</v>
@@ -8364,14 +8914,24 @@
       <c r="M122">
         <v>9</v>
       </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
+      <c r="N122" s="2">
+        <v>1.5601E-2</v>
+      </c>
+      <c r="O122" s="2">
+        <v>1.2947999999999999E-2</v>
+      </c>
+      <c r="P122" s="2">
+        <v>1.1919000000000001E-2</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="R122" s="2">
+        <v>1.3388000000000001E-2</v>
+      </c>
       <c r="S122" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.36212E-2</v>
       </c>
       <c r="V122">
         <v>2</v>
@@ -8396,14 +8956,24 @@
       <c r="C123">
         <v>10</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="D123" s="2">
+        <v>4.2649999999999997E-3</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3.7989999999999999E-3</v>
+      </c>
+      <c r="F123" s="2">
+        <v>3.9519999999999998E-3</v>
+      </c>
+      <c r="G123" s="2">
+        <v>3.4009999999999999E-3</v>
+      </c>
+      <c r="H123" s="2">
+        <v>3.3249999999999998E-3</v>
+      </c>
       <c r="I123" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.7483999999999998E-3</v>
       </c>
       <c r="L123">
         <v>2</v>
@@ -8411,14 +8981,24 @@
       <c r="M123">
         <v>10</v>
       </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
+      <c r="N123" s="2">
+        <v>1.1771999999999999E-2</v>
+      </c>
+      <c r="O123" s="2">
+        <v>8.9470000000000001E-3</v>
+      </c>
+      <c r="P123" s="2">
+        <v>1.3974E-2</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>1.2393E-2</v>
+      </c>
+      <c r="R123" s="2">
+        <v>9.3900000000000008E-3</v>
+      </c>
       <c r="S123" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.1295200000000002E-2</v>
       </c>
       <c r="V123">
         <v>2</v>
@@ -8443,14 +9023,24 @@
       <c r="C124">
         <v>12</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="D124" s="2">
+        <v>4.3639999999999998E-3</v>
+      </c>
+      <c r="E124" s="2">
+        <v>4.0090000000000004E-3</v>
+      </c>
+      <c r="F124" s="2">
+        <v>3.8539999999999998E-3</v>
+      </c>
+      <c r="G124" s="2">
+        <v>4.6230000000000004E-3</v>
+      </c>
+      <c r="H124" s="2">
+        <v>3.8899999999999998E-3</v>
+      </c>
       <c r="I124" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.1480000000000006E-3</v>
       </c>
       <c r="L124">
         <v>2</v>
@@ -8458,14 +9048,24 @@
       <c r="M124">
         <v>12</v>
       </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
+      <c r="N124" s="2">
+        <v>9.9989999999999992E-3</v>
+      </c>
+      <c r="O124" s="2">
+        <v>9.554E-3</v>
+      </c>
+      <c r="P124" s="2">
+        <v>9.7730000000000004E-3</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>1.3341E-2</v>
+      </c>
+      <c r="R124" s="2">
+        <v>9.6559999999999997E-3</v>
+      </c>
       <c r="S124" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.0464600000000001E-2</v>
       </c>
       <c r="V124">
         <v>2</v>
@@ -8490,14 +9090,24 @@
       <c r="C125">
         <v>14</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="D125" s="2">
+        <v>3.9490000000000003E-3</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4.0940000000000004E-3</v>
+      </c>
+      <c r="F125" s="2">
+        <v>3.9529999999999999E-3</v>
+      </c>
+      <c r="G125" s="2">
+        <v>4.2389999999999997E-3</v>
+      </c>
+      <c r="H125" s="2">
+        <v>4.8640000000000003E-3</v>
+      </c>
       <c r="I125" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.2198000000000001E-3</v>
       </c>
       <c r="L125">
         <v>2</v>
@@ -8505,14 +9115,24 @@
       <c r="M125">
         <v>14</v>
       </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
+      <c r="N125" s="2">
+        <v>1.2357999999999999E-2</v>
+      </c>
+      <c r="O125" s="2">
+        <v>1.3703999999999999E-2</v>
+      </c>
+      <c r="P125" s="2">
+        <v>1.7158E-2</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>2.7632E-2</v>
+      </c>
+      <c r="R125" s="2">
+        <v>1.319E-2</v>
+      </c>
       <c r="S125" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6808400000000001E-2</v>
       </c>
       <c r="V125">
         <v>2</v>
@@ -8537,14 +9157,24 @@
       <c r="C126">
         <v>16</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="D126" s="2">
+        <v>3.5230000000000001E-3</v>
+      </c>
+      <c r="E126" s="2">
+        <v>2.905E-3</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3.6960000000000001E-3</v>
+      </c>
+      <c r="G126" s="2">
+        <v>5.7759999999999999E-3</v>
+      </c>
+      <c r="H126" s="2">
+        <v>6.3290000000000004E-3</v>
+      </c>
       <c r="I126" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.4457999999999998E-3</v>
       </c>
       <c r="L126">
         <v>2</v>
@@ -8552,14 +9182,24 @@
       <c r="M126">
         <v>16</v>
       </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
+      <c r="N126" s="2">
+        <v>3.5879000000000001E-2</v>
+      </c>
+      <c r="O126" s="2">
+        <v>2.3987000000000001E-2</v>
+      </c>
+      <c r="P126" s="2">
+        <v>2.4237000000000002E-2</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>1.8367000000000001E-2</v>
+      </c>
+      <c r="R126" s="2">
+        <v>2.9033E-2</v>
+      </c>
       <c r="S126" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.63006E-2</v>
       </c>
       <c r="V126">
         <v>2</v>
@@ -8584,14 +9224,24 @@
       <c r="C127">
         <v>18</v>
       </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="D127" s="2">
+        <v>8.345E-3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4.8430000000000001E-3</v>
+      </c>
+      <c r="F127" s="2">
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="G127" s="2">
+        <v>4.3309999999999998E-3</v>
+      </c>
+      <c r="H127" s="2">
+        <v>4.3169999999999997E-3</v>
+      </c>
       <c r="I127" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.2422000000000007E-3</v>
       </c>
       <c r="L127">
         <v>2</v>
@@ -8599,14 +9249,24 @@
       <c r="M127">
         <v>18</v>
       </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
+      <c r="N127" s="2">
+        <v>4.2874000000000002E-2</v>
+      </c>
+      <c r="O127" s="2">
+        <v>2.7040000000000002E-2</v>
+      </c>
+      <c r="P127" s="2">
+        <v>9.1009999999999997E-3</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>2.5877000000000001E-2</v>
+      </c>
+      <c r="R127" s="2">
+        <v>6.0310000000000002E-2</v>
+      </c>
       <c r="S127" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.3040400000000004E-2</v>
       </c>
       <c r="V127">
         <v>2</v>
@@ -8631,14 +9291,24 @@
       <c r="C128">
         <v>20</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="D128" s="2">
+        <v>4.326E-3</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3.8760000000000001E-3</v>
+      </c>
+      <c r="F128" s="2">
+        <v>3.47E-3</v>
+      </c>
+      <c r="G128" s="2">
+        <v>4.9309999999999996E-3</v>
+      </c>
+      <c r="H128" s="2">
+        <v>4.2950000000000002E-3</v>
+      </c>
       <c r="I128" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.1796000000000003E-3</v>
       </c>
       <c r="L128">
         <v>2</v>
@@ -8646,14 +9316,24 @@
       <c r="M128">
         <v>20</v>
       </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
+      <c r="N128" s="2">
+        <v>5.4621999999999997E-2</v>
+      </c>
+      <c r="O128" s="2">
+        <v>1.2396000000000001E-2</v>
+      </c>
+      <c r="P128" s="2">
+        <v>1.0333E-2</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>1.1083000000000001E-2</v>
+      </c>
+      <c r="R128" s="2">
+        <v>1.2848999999999999E-2</v>
+      </c>
       <c r="S128" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0256599999999996E-2</v>
       </c>
       <c r="V128">
         <v>2</v>
@@ -8678,14 +9358,24 @@
       <c r="C129">
         <v>22</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="D129" s="2">
+        <v>4.8739999999999999E-3</v>
+      </c>
+      <c r="E129" s="2">
+        <v>4.7840000000000001E-3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>4.9649999999999998E-3</v>
+      </c>
+      <c r="G129" s="2">
+        <v>4.8869999999999999E-3</v>
+      </c>
+      <c r="H129" s="2">
+        <v>4.9870000000000001E-3</v>
+      </c>
       <c r="I129" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.8993999999999999E-3</v>
       </c>
       <c r="L129">
         <v>2</v>
@@ -8693,14 +9383,24 @@
       <c r="M129">
         <v>22</v>
       </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
+      <c r="N129" s="2">
+        <v>1.0923E-2</v>
+      </c>
+      <c r="O129" s="2">
+        <v>1.3266999999999999E-2</v>
+      </c>
+      <c r="P129" s="2">
+        <v>1.3668E-2</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>6.1857000000000002E-2</v>
+      </c>
+      <c r="R129" s="2">
+        <v>1.098E-2</v>
+      </c>
       <c r="S129" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.2138999999999999E-2</v>
       </c>
       <c r="V129">
         <v>2</v>
@@ -8725,14 +9425,24 @@
       <c r="C130">
         <v>24</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="D130" s="2">
+        <v>4.071E-3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3.4819999999999999E-3</v>
+      </c>
+      <c r="F130" s="2">
+        <v>6.8349999999999999E-3</v>
+      </c>
+      <c r="G130" s="2">
+        <v>4.2379999999999996E-3</v>
+      </c>
+      <c r="H130" s="2">
+        <v>4.4559999999999999E-3</v>
+      </c>
       <c r="I130" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.6163999999999997E-3</v>
       </c>
       <c r="L130">
         <v>2</v>
@@ -8740,14 +9450,24 @@
       <c r="M130">
         <v>24</v>
       </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
+      <c r="N130" s="2">
+        <v>5.9448000000000001E-2</v>
+      </c>
+      <c r="O130" s="2">
+        <v>4.709E-2</v>
+      </c>
+      <c r="P130" s="2">
+        <v>2.7403E-2</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>3.4284000000000002E-2</v>
+      </c>
+      <c r="R130" s="2">
+        <v>3.6464999999999997E-2</v>
+      </c>
       <c r="S130" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.0938000000000002E-2</v>
       </c>
       <c r="V130">
         <v>2</v>
@@ -8772,14 +9492,24 @@
       <c r="C131">
         <v>26</v>
       </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="D131" s="2">
+        <v>5.2729999999999999E-3</v>
+      </c>
+      <c r="E131" s="2">
+        <v>4.3540000000000002E-3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>6.6449999999999999E-3</v>
+      </c>
+      <c r="G131" s="2">
+        <v>3.9579999999999997E-3</v>
+      </c>
+      <c r="H131" s="2">
+        <v>7.4209999999999996E-3</v>
+      </c>
       <c r="I131" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.5302000000000007E-3</v>
       </c>
       <c r="L131">
         <v>2</v>
@@ -8787,14 +9517,24 @@
       <c r="M131">
         <v>26</v>
       </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
+      <c r="N131" s="2">
+        <v>9.5024999999999998E-2</v>
+      </c>
+      <c r="O131" s="2">
+        <v>3.6644999999999997E-2</v>
+      </c>
+      <c r="P131" s="2">
+        <v>5.3358000000000003E-2</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>4.7946000000000003E-2</v>
+      </c>
+      <c r="R131" s="2">
+        <v>3.0714999999999999E-2</v>
+      </c>
       <c r="S131" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.2737800000000001E-2</v>
       </c>
       <c r="V131">
         <v>2</v>
@@ -8819,14 +9559,24 @@
       <c r="C132">
         <v>28</v>
       </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="D132" s="2">
+        <v>6.5459999999999997E-3</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1.2037000000000001E-2</v>
+      </c>
+      <c r="F132" s="2">
+        <v>6.2820000000000003E-3</v>
+      </c>
+      <c r="G132" s="2">
+        <v>6.1809999999999999E-3</v>
+      </c>
+      <c r="H132" s="2">
+        <v>7.4900000000000001E-3</v>
+      </c>
       <c r="I132" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.7072E-3</v>
       </c>
       <c r="L132">
         <v>2</v>
@@ -8834,14 +9584,24 @@
       <c r="M132">
         <v>28</v>
       </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
+      <c r="N132" s="2">
+        <v>7.8719999999999998E-2</v>
+      </c>
+      <c r="O132" s="2">
+        <v>3.3544999999999998E-2</v>
+      </c>
+      <c r="P132" s="2">
+        <v>3.1555E-2</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>0.12685299999999999</v>
+      </c>
+      <c r="R132" s="2">
+        <v>4.1113999999999998E-2</v>
+      </c>
       <c r="S132" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.2357399999999993E-2</v>
       </c>
       <c r="V132">
         <v>2</v>

--- a/CW2/Timing data.xlsx
+++ b/CW2/Timing data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D67C42-4102-4965-BF94-A44BA3E91C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD7EBB9-4710-4CA1-9D3C-728F786E8707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P139" sqref="P139"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB133" sqref="AB133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7109,14 +7109,24 @@
       <c r="W93">
         <v>2</v>
       </c>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
-      <c r="AB93" s="2"/>
+      <c r="X93" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>4.9760000000000004E-3</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>4.3509999999999998E-3</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>4.3140000000000001E-3</v>
+      </c>
       <c r="AC93" s="2">
         <f t="shared" ref="AC93:AC111" si="8">SUM(X93:AB93)/5</f>
-        <v>0</v>
+        <v>4.4481999999999994E-3</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.3">
@@ -7176,14 +7186,24 @@
       <c r="W94">
         <v>3</v>
       </c>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-      <c r="AB94" s="2"/>
+      <c r="X94" s="2">
+        <v>5.4679999999999998E-3</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>6.7010000000000004E-3</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>6.4650000000000003E-3</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>6.084E-3</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>5.4510000000000001E-3</v>
+      </c>
       <c r="AC94" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.0337999999999998E-3</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.3">
@@ -7243,14 +7263,24 @@
       <c r="W95">
         <v>4</v>
       </c>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-      <c r="AB95" s="2"/>
+      <c r="X95" s="2">
+        <v>6.881E-3</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>6.0939999999999996E-3</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>5.9069999999999999E-3</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>6.9369999999999996E-3</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>6.3049999999999998E-3</v>
+      </c>
       <c r="AC95" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.4247999999999996E-3</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.3">
@@ -7310,14 +7340,24 @@
       <c r="W96">
         <v>5</v>
       </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
+      <c r="X96" s="2">
+        <v>5.6990000000000001E-3</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>5.8040000000000001E-3</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>5.6730000000000001E-3</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>5.9100000000000003E-3</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>4.463E-3</v>
+      </c>
       <c r="AC96" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5098000000000005E-3</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.3">
@@ -7377,14 +7417,24 @@
       <c r="W97">
         <v>6</v>
       </c>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
+      <c r="X97" s="2">
+        <v>6.3509999999999999E-3</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>6.8950000000000001E-3</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>6.9199999999999999E-3</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>6.5189999999999996E-3</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>5.9090000000000002E-3</v>
+      </c>
       <c r="AC97" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.5187999999999999E-3</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.3">
@@ -7444,14 +7494,24 @@
       <c r="W98">
         <v>7</v>
       </c>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
+      <c r="X98" s="2">
+        <v>8.9990000000000001E-3</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>4.607E-3</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>5.522E-3</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>7.2610000000000001E-3</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>6.6119999999999998E-3</v>
+      </c>
       <c r="AC98" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.6002000000000005E-3</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.3">
@@ -7511,14 +7571,24 @@
       <c r="W99">
         <v>8</v>
       </c>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
+      <c r="X99" s="2">
+        <v>4.4749999999999998E-3</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>6.0280000000000004E-3</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>6.215E-3</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>6.5750000000000001E-3</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>4.5269999999999998E-3</v>
+      </c>
       <c r="AC99" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5640000000000004E-3</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.3">
@@ -7578,14 +7648,24 @@
       <c r="W100">
         <v>9</v>
       </c>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
+      <c r="X100" s="2">
+        <v>0.10738</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>7.5799999999999999E-3</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>4.6090000000000002E-3</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>9.5135999999999998E-2</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>6.8278000000000005E-2</v>
+      </c>
       <c r="AC100" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.6596599999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.3">
@@ -7645,14 +7725,24 @@
       <c r="W101">
         <v>10</v>
       </c>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
+      <c r="X101" s="2">
+        <v>8.7030000000000007E-3</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>4.6179999999999997E-3</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>4.4970000000000001E-3</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>5.032E-3</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>4.9880000000000002E-3</v>
+      </c>
       <c r="AC101" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5676000000000007E-3</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.3">
@@ -7712,14 +7802,24 @@
       <c r="W102">
         <v>12</v>
       </c>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
-      <c r="AA102" s="2"/>
-      <c r="AB102" s="2"/>
+      <c r="X102" s="2">
+        <v>6.8019999999999999E-3</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>0.172598</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>0.110495</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>0.162693</v>
+      </c>
+      <c r="AB102" s="2">
+        <v>0.165802</v>
+      </c>
       <c r="AC102" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.123678</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.3">
@@ -7779,14 +7879,24 @@
       <c r="W103">
         <v>14</v>
       </c>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-      <c r="AB103" s="2"/>
+      <c r="X103" s="2">
+        <v>0.27704000000000001</v>
+      </c>
+      <c r="Y103" s="2">
+        <v>0.12509799999999999</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>9.9830000000000006E-3</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>7.7640000000000001E-3</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>6.6319999999999999E-3</v>
+      </c>
       <c r="AC103" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.5303400000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.3">
@@ -7846,14 +7956,24 @@
       <c r="W104">
         <v>16</v>
       </c>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
+      <c r="X104" s="2">
+        <v>0.27704000000000001</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>0.12509799999999999</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>9.9830000000000006E-3</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>7.7640000000000001E-3</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>6.6319999999999999E-3</v>
+      </c>
       <c r="AC104" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8.5303400000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="2:29" x14ac:dyDescent="0.3">
@@ -7913,14 +8033,24 @@
       <c r="W105">
         <v>18</v>
       </c>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
-      <c r="AB105" s="2"/>
+      <c r="X105" s="2">
+        <v>0.177564</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>0.24526800000000001</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>0.206123</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>0.29887200000000003</v>
+      </c>
+      <c r="AB105" s="2">
+        <v>0.41246100000000002</v>
+      </c>
       <c r="AC105" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.26805760000000001</v>
       </c>
     </row>
     <row r="106" spans="2:29" x14ac:dyDescent="0.3">
@@ -7980,14 +8110,24 @@
       <c r="W106">
         <v>20</v>
       </c>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
-      <c r="AA106" s="2"/>
-      <c r="AB106" s="2"/>
+      <c r="X106" s="2">
+        <v>0.21778400000000001</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>2.4847999999999999E-2</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>1.0624E-2</v>
+      </c>
+      <c r="AA106" s="2">
+        <v>0.22184699999999999</v>
+      </c>
+      <c r="AB106" s="2">
+        <v>0.36779099999999998</v>
+      </c>
       <c r="AC106" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.1685788</v>
       </c>
     </row>
     <row r="107" spans="2:29" x14ac:dyDescent="0.3">
@@ -8047,14 +8187,24 @@
       <c r="W107">
         <v>22</v>
       </c>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="2"/>
+      <c r="X107" s="2">
+        <v>5.0848999999999998E-2</v>
+      </c>
+      <c r="Y107" s="2">
+        <v>0.26322499999999999</v>
+      </c>
+      <c r="Z107" s="2">
+        <v>0.18569099999999999</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>0.23388800000000001</v>
+      </c>
+      <c r="AB107" s="2">
+        <v>0.20404800000000001</v>
+      </c>
       <c r="AC107" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.18754019999999999</v>
       </c>
     </row>
     <row r="108" spans="2:29" x14ac:dyDescent="0.3">
@@ -8114,14 +8264,24 @@
       <c r="W108">
         <v>24</v>
       </c>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="2"/>
+      <c r="X108" s="2">
+        <v>0.113939</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>0.183503</v>
+      </c>
+      <c r="Z108" s="2">
+        <v>0.12995599999999999</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>0.28311599999999998</v>
+      </c>
+      <c r="AB108" s="2">
+        <v>0.14461199999999999</v>
+      </c>
       <c r="AC108" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.17102519999999996</v>
       </c>
     </row>
     <row r="109" spans="2:29" x14ac:dyDescent="0.3">
@@ -8181,14 +8341,24 @@
       <c r="W109">
         <v>26</v>
       </c>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
+      <c r="X109" s="2">
+        <v>0.47208</v>
+      </c>
+      <c r="Y109" s="2">
+        <v>0.13689299999999999</v>
+      </c>
+      <c r="Z109" s="2">
+        <v>6.9712999999999997E-2</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>0.11792999999999999</v>
+      </c>
+      <c r="AB109" s="2">
+        <v>9.1983999999999996E-2</v>
+      </c>
       <c r="AC109" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.17771999999999999</v>
       </c>
     </row>
     <row r="110" spans="2:29" x14ac:dyDescent="0.3">
@@ -8248,14 +8418,24 @@
       <c r="W110">
         <v>28</v>
       </c>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
+      <c r="X110" s="2">
+        <v>0.56765100000000002</v>
+      </c>
+      <c r="Y110" s="2">
+        <v>1.3899E-2</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>1.2274E-2</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>2.9822999999999999E-2</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>1.4338999999999999E-2</v>
+      </c>
       <c r="AC110" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.12759720000000002</v>
       </c>
     </row>
     <row r="111" spans="2:29" x14ac:dyDescent="0.3">
@@ -8315,14 +8495,24 @@
       <c r="W111">
         <v>56</v>
       </c>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
+      <c r="X111" s="2">
+        <v>0.62446299999999999</v>
+      </c>
+      <c r="Y111" s="2">
+        <v>4.7230000000000001E-2</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>4.7632000000000001E-2</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>0.10287300000000001</v>
+      </c>
+      <c r="AB111" s="2">
+        <v>2.3654000000000001E-2</v>
+      </c>
       <c r="AC111" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.1691704</v>
       </c>
     </row>
     <row r="113" spans="2:29" x14ac:dyDescent="0.3">
@@ -8470,14 +8660,24 @@
       <c r="W115">
         <v>2</v>
       </c>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
+      <c r="X115" s="2">
+        <v>9.5589999999999998E-3</v>
+      </c>
+      <c r="Y115" s="2">
+        <v>1.1979999999999999E-2</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>1.3820000000000001E-2</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>1.7468999999999998E-2</v>
+      </c>
+      <c r="AB115" s="2">
+        <v>1.6319E-2</v>
+      </c>
       <c r="AC115" s="2">
         <f t="shared" ref="AC115:AC132" si="11">SUM(X115:AB115)/5</f>
-        <v>0</v>
+        <v>1.38294E-2</v>
       </c>
     </row>
     <row r="116" spans="2:29" x14ac:dyDescent="0.3">
@@ -8537,14 +8737,24 @@
       <c r="W116">
         <v>3</v>
       </c>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
+      <c r="X116" s="2">
+        <v>2.1232999999999998E-2</v>
+      </c>
+      <c r="Y116" s="2">
+        <v>2.1315000000000001E-2</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>1.0711999999999999E-2</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>1.5858000000000001E-2</v>
+      </c>
+      <c r="AB116" s="2">
+        <v>2.4036999999999999E-2</v>
+      </c>
       <c r="AC116" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.8631000000000002E-2</v>
       </c>
     </row>
     <row r="117" spans="2:29" x14ac:dyDescent="0.3">
@@ -8604,14 +8814,24 @@
       <c r="W117">
         <v>4</v>
       </c>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-      <c r="AB117" s="2"/>
+      <c r="X117" s="2">
+        <v>2.649E-2</v>
+      </c>
+      <c r="Y117" s="2">
+        <v>1.3974E-2</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>1.2239E-2</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>1.2086E-2</v>
+      </c>
+      <c r="AB117" s="2">
+        <v>1.2194999999999999E-2</v>
+      </c>
       <c r="AC117" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5396799999999999E-2</v>
       </c>
     </row>
     <row r="118" spans="2:29" x14ac:dyDescent="0.3">
@@ -8671,14 +8891,24 @@
       <c r="W118">
         <v>5</v>
       </c>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
+      <c r="X118" s="2">
+        <v>1.5247E-2</v>
+      </c>
+      <c r="Y118" s="2">
+        <v>2.7316E-2</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>2.3779000000000002E-2</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>1.5633000000000001E-2</v>
+      </c>
+      <c r="AB118" s="2">
+        <v>1.5491E-2</v>
+      </c>
       <c r="AC118" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.9493200000000006E-2</v>
       </c>
     </row>
     <row r="119" spans="2:29" x14ac:dyDescent="0.3">
@@ -8738,14 +8968,24 @@
       <c r="W119">
         <v>6</v>
       </c>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
+      <c r="X119" s="2">
+        <v>2.5208999999999999E-2</v>
+      </c>
+      <c r="Y119" s="2">
+        <v>3.9017999999999997E-2</v>
+      </c>
+      <c r="Z119" s="2">
+        <v>1.4037000000000001E-2</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>3.0346999999999999E-2</v>
+      </c>
+      <c r="AB119" s="2">
+        <v>1.7994E-2</v>
+      </c>
       <c r="AC119" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5321E-2</v>
       </c>
     </row>
     <row r="120" spans="2:29" x14ac:dyDescent="0.3">
@@ -8805,14 +9045,24 @@
       <c r="W120">
         <v>7</v>
       </c>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
-      <c r="AA120" s="2"/>
-      <c r="AB120" s="2"/>
+      <c r="X120" s="2">
+        <v>4.7135999999999997E-2</v>
+      </c>
+      <c r="Y120" s="2">
+        <v>2.8195999999999999E-2</v>
+      </c>
+      <c r="Z120" s="2">
+        <v>2.5918E-2</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>2.9340999999999999E-2</v>
+      </c>
+      <c r="AB120" s="2">
+        <v>2.9142000000000001E-2</v>
+      </c>
       <c r="AC120" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.1946599999999999E-2</v>
       </c>
     </row>
     <row r="121" spans="2:29" x14ac:dyDescent="0.3">
@@ -8872,14 +9122,24 @@
       <c r="W121">
         <v>8</v>
       </c>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
+      <c r="X121" s="2">
+        <v>8.0348000000000003E-2</v>
+      </c>
+      <c r="Y121" s="2">
+        <v>2.8313999999999999E-2</v>
+      </c>
+      <c r="Z121" s="2">
+        <v>3.3370999999999998E-2</v>
+      </c>
+      <c r="AA121" s="2">
+        <v>3.2885999999999999E-2</v>
+      </c>
+      <c r="AB121" s="2">
+        <v>3.1556000000000001E-2</v>
+      </c>
       <c r="AC121" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.1295000000000005E-2</v>
       </c>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.3">
@@ -8939,14 +9199,24 @@
       <c r="W122">
         <v>9</v>
       </c>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-      <c r="AB122" s="2"/>
+      <c r="X122" s="2">
+        <v>1.8183000000000001E-2</v>
+      </c>
+      <c r="Y122" s="2">
+        <v>3.1674000000000001E-2</v>
+      </c>
+      <c r="Z122" s="2">
+        <v>2.5736999999999999E-2</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>3.1261999999999998E-2</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>3.1168999999999999E-2</v>
+      </c>
       <c r="AC122" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.7604999999999998E-2</v>
       </c>
     </row>
     <row r="123" spans="2:29" x14ac:dyDescent="0.3">
@@ -9006,14 +9276,24 @@
       <c r="W123">
         <v>10</v>
       </c>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-      <c r="AB123" s="2"/>
+      <c r="X123" s="2">
+        <v>1.2538000000000001E-2</v>
+      </c>
+      <c r="Y123" s="2">
+        <v>1.3513000000000001E-2</v>
+      </c>
+      <c r="Z123" s="2">
+        <v>1.3903E-2</v>
+      </c>
+      <c r="AA123" s="2">
+        <v>2.0648E-2</v>
+      </c>
+      <c r="AB123" s="2">
+        <v>1.7177999999999999E-2</v>
+      </c>
       <c r="AC123" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5556E-2</v>
       </c>
     </row>
     <row r="124" spans="2:29" x14ac:dyDescent="0.3">
@@ -9073,14 +9353,24 @@
       <c r="W124">
         <v>12</v>
       </c>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="2"/>
+      <c r="X124" s="2">
+        <v>2.0282000000000001E-2</v>
+      </c>
+      <c r="Y124" s="2">
+        <v>1.3311E-2</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>2.5440000000000001E-2</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>2.8660999999999999E-2</v>
+      </c>
+      <c r="AB124" s="2">
+        <v>2.0795000000000001E-2</v>
+      </c>
       <c r="AC124" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.16978E-2</v>
       </c>
     </row>
     <row r="125" spans="2:29" x14ac:dyDescent="0.3">
@@ -9140,14 +9430,24 @@
       <c r="W125">
         <v>14</v>
       </c>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-      <c r="AB125" s="2"/>
+      <c r="X125" s="2">
+        <v>3.3696999999999998E-2</v>
+      </c>
+      <c r="Y125" s="2">
+        <v>4.4817999999999997E-2</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>1.3408E-2</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>4.6197000000000002E-2</v>
+      </c>
+      <c r="AB125" s="2">
+        <v>1.8249999999999999E-2</v>
+      </c>
       <c r="AC125" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.1274000000000003E-2</v>
       </c>
     </row>
     <row r="126" spans="2:29" x14ac:dyDescent="0.3">
@@ -9207,14 +9507,24 @@
       <c r="W126">
         <v>16</v>
       </c>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-      <c r="AB126" s="2"/>
+      <c r="X126" s="2">
+        <v>7.9344999999999999E-2</v>
+      </c>
+      <c r="Y126" s="2">
+        <v>1.3127E-2</v>
+      </c>
+      <c r="Z126" s="2">
+        <v>5.151E-2</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>5.9158000000000002E-2</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>1.4533000000000001E-2</v>
+      </c>
       <c r="AC126" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.3534599999999993E-2</v>
       </c>
     </row>
     <row r="127" spans="2:29" x14ac:dyDescent="0.3">
@@ -9274,14 +9584,24 @@
       <c r="W127">
         <v>18</v>
       </c>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
+      <c r="X127" s="2">
+        <v>1.8109E-2</v>
+      </c>
+      <c r="Y127" s="2">
+        <v>3.8924E-2</v>
+      </c>
+      <c r="Z127" s="2">
+        <v>3.7435000000000003E-2</v>
+      </c>
+      <c r="AA127" s="2">
+        <v>1.1638000000000001E-2</v>
+      </c>
+      <c r="AB127" s="2">
+        <v>5.0946999999999999E-2</v>
+      </c>
       <c r="AC127" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.1410599999999997E-2</v>
       </c>
     </row>
     <row r="128" spans="2:29" x14ac:dyDescent="0.3">
@@ -9341,14 +9661,24 @@
       <c r="W128">
         <v>20</v>
       </c>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
-      <c r="AB128" s="2"/>
+      <c r="X128" s="2">
+        <v>1.3358E-2</v>
+      </c>
+      <c r="Y128" s="2">
+        <v>1.3207999999999999E-2</v>
+      </c>
+      <c r="Z128" s="2">
+        <v>7.8900999999999999E-2</v>
+      </c>
+      <c r="AA128" s="2">
+        <v>8.9417999999999997E-2</v>
+      </c>
+      <c r="AB128" s="2">
+        <v>0.12805</v>
+      </c>
       <c r="AC128" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.4586999999999992E-2</v>
       </c>
     </row>
     <row r="129" spans="2:31" x14ac:dyDescent="0.3">
@@ -9408,14 +9738,24 @@
       <c r="W129">
         <v>22</v>
       </c>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
-      <c r="AB129" s="2"/>
+      <c r="X129" s="2">
+        <v>2.7536000000000001E-2</v>
+      </c>
+      <c r="Y129" s="2">
+        <v>1.2418E-2</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>0.10438</v>
+      </c>
+      <c r="AA129" s="2">
+        <v>3.0084E-2</v>
+      </c>
+      <c r="AB129" s="2">
+        <v>2.0989000000000001E-2</v>
+      </c>
       <c r="AC129" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.9081400000000002E-2</v>
       </c>
     </row>
     <row r="130" spans="2:31" x14ac:dyDescent="0.3">
@@ -9475,14 +9815,24 @@
       <c r="W130">
         <v>24</v>
       </c>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
-      <c r="AA130" s="2"/>
-      <c r="AB130" s="2"/>
+      <c r="X130" s="2">
+        <v>0.19158600000000001</v>
+      </c>
+      <c r="Y130" s="2">
+        <v>0.15037800000000001</v>
+      </c>
+      <c r="Z130" s="2">
+        <v>0.150231</v>
+      </c>
+      <c r="AA130" s="2">
+        <v>0.12665799999999999</v>
+      </c>
+      <c r="AB130" s="2">
+        <v>0.13945099999999999</v>
+      </c>
       <c r="AC130" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.15166080000000001</v>
       </c>
     </row>
     <row r="131" spans="2:31" x14ac:dyDescent="0.3">
@@ -9542,14 +9892,24 @@
       <c r="W131">
         <v>26</v>
       </c>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
-      <c r="AA131" s="2"/>
-      <c r="AB131" s="2"/>
+      <c r="X131" s="2">
+        <v>0.10864500000000001</v>
+      </c>
+      <c r="Y131" s="2">
+        <v>0.170991</v>
+      </c>
+      <c r="Z131" s="2">
+        <v>0.131216</v>
+      </c>
+      <c r="AA131" s="2">
+        <v>0.17532500000000001</v>
+      </c>
+      <c r="AB131" s="2">
+        <v>0.186806</v>
+      </c>
       <c r="AC131" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.1545966</v>
       </c>
     </row>
     <row r="132" spans="2:31" x14ac:dyDescent="0.3">
@@ -9609,14 +9969,24 @@
       <c r="W132">
         <v>28</v>
       </c>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-      <c r="AB132" s="2"/>
+      <c r="X132" s="2">
+        <v>0.18029800000000001</v>
+      </c>
+      <c r="Y132" s="2">
+        <v>0.24496100000000001</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>0.15149899999999999</v>
+      </c>
+      <c r="AA132" s="2">
+        <v>0.147511</v>
+      </c>
+      <c r="AB132" s="2">
+        <v>0.238089</v>
+      </c>
       <c r="AC132" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.19247160000000002</v>
       </c>
     </row>
     <row r="134" spans="2:31" x14ac:dyDescent="0.3">

--- a/CW2/Timing data.xlsx
+++ b/CW2/Timing data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54342543-BB5F-47AA-9B33-B0BA85869AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1CFC9-89F2-4972-AE4F-783080533E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19307,8 +19307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="DS9" sqref="DS9"/>
+    <sheetView tabSelected="1" topLeftCell="AP47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CW2/Timing data.xlsx
+++ b/CW2/Timing data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Work\Bristol Uni\Year 3\Intro-to-High-Performance-Conputing\CW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A1CFC9-89F2-4972-AE4F-783080533E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C9BA4-132A-41C8-B579-3D3CCC2CE25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19307,21 +19307,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="4" max="9" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="4" max="9" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="14" max="19" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="13.6640625" customWidth="1"/>
+    <col min="14" max="19" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>11.102611200000002</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>6.0437893999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>4.2055894</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>3.2124288000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>2.7678436</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>2.7071404000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>1</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>2.7127920000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>2.5956304000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>1</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>2.5622219999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>1</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>2.5615952000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>1</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>2.5839178</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>1</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>2.5039441999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>1</v>
       </c>
@@ -20407,7 +20407,7 @@
         <v>2.5309062</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>2.7515594000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>1</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>2.6908973999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>1</v>
       </c>
@@ -20638,7 +20638,7 @@
         <v>2.6091858000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>2.4898660000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>1</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>2.2412231999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>1</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>2.462707</v>
       </c>
     </row>
-    <row r="22" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>1</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>2.3679962000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>1</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>2.2120016000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>1</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>2.1722307999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>1</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>2.2331840000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>1</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>1.9680034</v>
       </c>
     </row>
-    <row r="27" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>1</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>1.9192355999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>1</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>1.7527468000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>1</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>1.8019946</v>
       </c>
     </row>
-    <row r="30" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>1</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>1.6840862000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>2</v>
       </c>
@@ -21639,7 +21639,7 @@
         <v>1.6551491999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>2</v>
       </c>
@@ -21716,7 +21716,7 @@
         <v>1.471595</v>
       </c>
     </row>
-    <row r="33" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>2</v>
       </c>
@@ -21793,7 +21793,7 @@
         <v>1.4886518000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>2</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>1.5809272000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>1.3017251999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>2</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>1.2834702</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>2</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>1.3932047999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>2</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>1.2027833999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>2</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>1.2096038</v>
       </c>
     </row>
-    <row r="40" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>1.2667421999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>2</v>
       </c>
@@ -22409,7 +22409,7 @@
         <v>1.2905149999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>2</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>1.313876</v>
       </c>
     </row>
-    <row r="43" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>2</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>1.0981757999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>2</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>1.2102189999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>2</v>
       </c>
@@ -22720,7 +22720,7 @@
         <v>1.144552</v>
       </c>
     </row>
-    <row r="46" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>2</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>1.1301855999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>2</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>1.0693421999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:29" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -22954,7 +22954,7 @@
         <v>0.99731500000000006</v>
       </c>
     </row>
-    <row r="49" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>2</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>1.0839468000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>2</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>1.0558125999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>2</v>
       </c>
@@ -23187,7 +23187,7 @@
         <v>0.92737259999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>2</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>0.94016459999999991</v>
       </c>
     </row>
-    <row r="53" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>2</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>1.034233</v>
       </c>
     </row>
-    <row r="54" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>2</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>0.9709658000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>2</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>0.96268039999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>2</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>0.90689540000000002</v>
       </c>
     </row>
-    <row r="57" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>2</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>0.92726819999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>2</v>
       </c>
@@ -23726,9 +23726,9 @@
         <v>0.9179906000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:30" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
@@ -23758,7 +23758,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>2</v>
       </c>
@@ -23835,7 +23835,7 @@
         <v>5.5679365999999995</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2</v>
       </c>
@@ -23912,7 +23912,7 @@
         <v>3.9199482000000003</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>2</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>2.9700654000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>2</v>
       </c>
@@ -24066,7 +24066,7 @@
         <v>2.5860192</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>2.2060667999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>2</v>
       </c>
@@ -24220,7 +24220,7 @@
         <v>1.9062542</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
@@ -24297,7 +24297,7 @@
         <v>1.6233743600000001</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>2</v>
       </c>
@@ -24374,7 +24374,7 @@
         <v>1.7749060000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>2</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>1.5657724</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>2</v>
       </c>
@@ -24528,7 +24528,7 @@
         <v>1.6133668000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>2</v>
       </c>
@@ -24605,7 +24605,7 @@
         <v>1.5066489999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2</v>
       </c>
@@ -24682,7 +24682,7 @@
         <v>1.5344387999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>2</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>1.3496104</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>2</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>1.3742808</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>1.3857733999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>1.3771032000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>1.3173226</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>2</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>1.3553761999999998</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>1.3282551999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>2</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>1.3444878000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>2</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1.3394894000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>1.3077108000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>2</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>1.3203572000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>2</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>1.3073152000000001</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>1.3466179999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>2</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>1.32673</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>1.311202</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>11</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1</v>
       </c>
@@ -26002,7 +26002,7 @@
         <v>4.4481999999999994E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>6.0337999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>6.4247999999999996E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>5.5098000000000005E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>6.5187999999999999E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>6.6002000000000005E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1</v>
       </c>
@@ -26464,7 +26464,7 @@
         <v>5.5640000000000004E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>5.6596599999999997E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1</v>
       </c>
@@ -26618,7 +26618,7 @@
         <v>5.5676000000000007E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>0.123678</v>
       </c>
     </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>1</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>8.5303400000000001E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>1</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>8.5303400000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1</v>
       </c>
@@ -26926,7 +26926,7 @@
         <v>0.26805760000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>1</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>0.1685788</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>1</v>
       </c>
@@ -27080,7 +27080,7 @@
         <v>0.18754019999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>1</v>
       </c>
@@ -27157,7 +27157,7 @@
         <v>0.17102519999999996</v>
       </c>
     </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>1</v>
       </c>
@@ -27234,7 +27234,7 @@
         <v>0.17771999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>1</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>0.12759720000000002</v>
       </c>
     </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>2</v>
       </c>
@@ -27388,7 +27388,7 @@
         <v>0.1691704</v>
       </c>
     </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
         <v>11</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>2</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>2</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>1.38294E-2</v>
       </c>
     </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>2</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>1.8631000000000002E-2</v>
       </c>
     </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>2</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>1.5396799999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>2</v>
       </c>
@@ -27784,7 +27784,7 @@
         <v>1.9493200000000006E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>2</v>
       </c>
@@ -27861,7 +27861,7 @@
         <v>2.5321E-2</v>
       </c>
     </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>2</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>3.1946599999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>2</v>
       </c>
@@ -28015,7 +28015,7 @@
         <v>4.1295000000000005E-2</v>
       </c>
     </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>2</v>
       </c>
@@ -28092,7 +28092,7 @@
         <v>2.7604999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>1.5556E-2</v>
       </c>
     </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2</v>
       </c>
@@ -28246,7 +28246,7 @@
         <v>2.16978E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>2</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>3.1274000000000003E-2</v>
       </c>
     </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>2</v>
       </c>
@@ -28400,7 +28400,7 @@
         <v>4.3534599999999993E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>2</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>3.1410599999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>2</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>6.4586999999999992E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>2</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>3.9081400000000002E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>2</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>0.15166080000000001</v>
       </c>
     </row>
-    <row r="131" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>2</v>
       </c>
@@ -28785,7 +28785,7 @@
         <v>0.1545966</v>
       </c>
     </row>
-    <row r="132" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>0.19247160000000002</v>
       </c>
     </row>
-    <row r="134" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -28894,7 +28894,7 @@
       <c r="AD134" s="2"/>
       <c r="AE134" s="2"/>
     </row>
-    <row r="135" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:31" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
         <v>11</v>
       </c>
@@ -28911,7 +28911,7 @@
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
     </row>
-    <row r="136" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>1</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>11.102611200000002</v>
       </c>
     </row>
-    <row r="137" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>1</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>6.0437893999999996</v>
       </c>
     </row>
-    <row r="138" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>1</v>
       </c>
@@ -29178,7 +29178,7 @@
         <v>4.2055894</v>
       </c>
     </row>
-    <row r="139" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>1</v>
       </c>
@@ -29267,7 +29267,7 @@
         <v>3.2124288000000001</v>
       </c>
     </row>
-    <row r="140" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>1</v>
       </c>
@@ -29356,7 +29356,7 @@
         <v>2.7678436</v>
       </c>
     </row>
-    <row r="141" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>1</v>
       </c>
@@ -29445,7 +29445,7 @@
         <v>2.7071404000000001</v>
       </c>
     </row>
-    <row r="142" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>1</v>
       </c>
@@ -29534,7 +29534,7 @@
         <v>2.7127920000000003</v>
       </c>
     </row>
-    <row r="143" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>1</v>
       </c>
@@ -29623,7 +29623,7 @@
         <v>2.5956304000000001</v>
       </c>
     </row>
-    <row r="144" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>1</v>
       </c>
@@ -29712,7 +29712,7 @@
         <v>2.5622219999999998</v>
       </c>
     </row>
-    <row r="145" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>1</v>
       </c>
@@ -29801,7 +29801,7 @@
         <v>2.5615952000000002</v>
       </c>
     </row>
-    <row r="146" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>1</v>
       </c>
@@ -29890,7 +29890,7 @@
         <v>2.5039441999999998</v>
       </c>
     </row>
-    <row r="147" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>1</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>2.7515594000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>1</v>
       </c>
@@ -30068,7 +30068,7 @@
         <v>2.6091858000000001</v>
       </c>
     </row>
-    <row r="149" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>1</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>2.2412231999999999</v>
       </c>
     </row>
-    <row r="150" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>1</v>
       </c>
@@ -30246,7 +30246,7 @@
         <v>2.3679962000000003</v>
       </c>
     </row>
-    <row r="151" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>1</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>2.1722307999999999</v>
       </c>
     </row>
-    <row r="152" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>1</v>
       </c>
@@ -30424,7 +30424,7 @@
         <v>1.9680034</v>
       </c>
     </row>
-    <row r="153" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>1</v>
       </c>
@@ -30513,7 +30513,7 @@
         <v>1.7527468000000002</v>
       </c>
     </row>
-    <row r="154" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>1</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>1.6840862000000001</v>
       </c>
     </row>
-    <row r="155" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>2</v>
       </c>
@@ -30691,7 +30691,7 @@
         <v>1.471595</v>
       </c>
     </row>
-    <row r="156" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>2</v>
       </c>
@@ -30780,7 +30780,7 @@
         <v>1.5809272000000001</v>
       </c>
     </row>
-    <row r="157" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>2</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>1.3932047999999999</v>
       </c>
     </row>
-    <row r="158" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>2</v>
       </c>
@@ -30958,7 +30958,7 @@
         <v>1.313876</v>
       </c>
     </row>
-    <row r="159" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>2</v>
       </c>
@@ -31047,7 +31047,7 @@
         <v>1.2102189999999999</v>
       </c>
     </row>
-    <row r="160" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>2</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>1.0693421999999999</v>
       </c>
     </row>
-    <row r="161" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>2</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>1.0558125999999999</v>
       </c>
     </row>
-    <row r="162" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>2</v>
       </c>
@@ -31314,7 +31314,7 @@
         <v>0.94016459999999991</v>
       </c>
     </row>
-    <row r="163" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>2</v>
       </c>
@@ -31403,7 +31403,7 @@
         <v>0.96268039999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>2</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>0.9179906000000001</v>
       </c>
     </row>
-    <row r="165" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -31524,7 +31524,7 @@
       <c r="AD165" s="2"/>
       <c r="AE165" s="2"/>
     </row>
-    <row r="166" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -31556,7 +31556,7 @@
       <c r="AD166" s="2"/>
       <c r="AE166" s="2"/>
     </row>
-    <row r="167" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -31588,7 +31588,7 @@
       <c r="AD167" s="2"/>
       <c r="AE167" s="2"/>
     </row>
-    <row r="168" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -31620,7 +31620,7 @@
       <c r="AD168" s="2"/>
       <c r="AE168" s="2"/>
     </row>
-    <row r="169" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -31647,7 +31647,7 @@
       <c r="AD169" s="2"/>
       <c r="AE169" s="2"/>
     </row>
-    <row r="170" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -31679,7 +31679,7 @@
       <c r="AD170" s="2"/>
       <c r="AE170" s="2"/>
     </row>
-    <row r="171" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -31711,7 +31711,7 @@
       <c r="AD171" s="2"/>
       <c r="AE171" s="2"/>
     </row>
-    <row r="172" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -31743,7 +31743,7 @@
       <c r="AD172" s="2"/>
       <c r="AE172" s="2"/>
     </row>
-    <row r="173" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -31775,7 +31775,7 @@
       <c r="AD173" s="2"/>
       <c r="AE173" s="2"/>
     </row>
-    <row r="174" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -31807,7 +31807,7 @@
       <c r="AD174" s="2"/>
       <c r="AE174" s="2"/>
     </row>
-    <row r="175" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -31839,7 +31839,7 @@
       <c r="AD175" s="2"/>
       <c r="AE175" s="2"/>
     </row>
-    <row r="176" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -31871,7 +31871,7 @@
       <c r="AD176" s="2"/>
       <c r="AE176" s="2"/>
     </row>
-    <row r="177" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -31903,7 +31903,7 @@
       <c r="AD177" s="2"/>
       <c r="AE177" s="2"/>
     </row>
-    <row r="178" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -31911,7 +31911,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -31919,7 +31919,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -31927,7 +31927,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -31935,7 +31935,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -31943,7 +31943,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -31951,7 +31951,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -31959,7 +31959,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -31967,7 +31967,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -31975,7 +31975,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -31983,7 +31983,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -31991,7 +31991,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -31999,7 +31999,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -32007,7 +32007,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -32015,7 +32015,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:31" x14ac:dyDescent="0.25">
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -32023,7 +32023,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -32031,7 +32031,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -32039,7 +32039,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -32047,7 +32047,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -32055,7 +32055,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -32063,7 +32063,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -32071,7 +32071,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -32079,7 +32079,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -32087,7 +32087,7 @@
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
